--- a/SquareWeight.xlsx
+++ b/SquareWeight.xlsx
@@ -4,17 +4,135 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="movepiece" sheetId="2" r:id="rId1"/>
+    <sheet name="weight" sheetId="1" r:id="rId2"/>
+    <sheet name="weight (全国赛)" sheetId="3" r:id="rId3"/>
+    <sheet name="weight(五羊杯）" sheetId="4" r:id="rId4"/>
+    <sheet name="Theory" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Red + black</t>
+  </si>
+  <si>
+    <t>开局</t>
+  </si>
+  <si>
+    <t>残局</t>
+  </si>
+  <si>
+    <t>马的机动性</t>
+  </si>
+  <si>
+    <t>每个棋子妨碍马的机动性</t>
+  </si>
+  <si>
+    <t>象的机动性</t>
+  </si>
+  <si>
+    <t>每个棋子妨碍象的机动性</t>
+  </si>
+  <si>
+    <t>炮的攻击性</t>
+  </si>
+  <si>
+    <t>每个棋子增加炮的攻击性</t>
+  </si>
+  <si>
+    <t>过河兵</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>仕</t>
+  </si>
+  <si>
+    <t>象</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>机动性</t>
+  </si>
+  <si>
+    <t>覆盖范围</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>经常处于满格17</t>
+  </si>
+  <si>
+    <t>炮</t>
+  </si>
+  <si>
+    <t>取决于位置和同一行列的棋子数量和远近，满格15</t>
+  </si>
+  <si>
+    <t>17+</t>
+  </si>
+  <si>
+    <t>取决于位置和絆马腿。满格8，加权5.6</t>
+  </si>
+  <si>
+    <t>取决于位置和絆马腿，满格8,实际在3.5左右。</t>
+  </si>
+  <si>
+    <t>攻击线路曲折，可以绕过仕象将军</t>
+  </si>
+  <si>
+    <t>兵</t>
+  </si>
+  <si>
+    <t>过河前1。过河后满格3,加权2.6。</t>
+  </si>
+  <si>
+    <t>过河前1。过河后满格3,加权2.6。运动速度3。</t>
+  </si>
+  <si>
+    <t>小于46，加权23</t>
+  </si>
+  <si>
+    <t>2~4。加权2.7，还有针对对方将帅的特殊攻击力</t>
+  </si>
+  <si>
+    <t>2~4。加权2.7</t>
+  </si>
+  <si>
+    <t>1~4。加权1.6</t>
+  </si>
+  <si>
+    <t>缺仕怕车</t>
+  </si>
+  <si>
+    <t>2，4。加权2.3</t>
+  </si>
+  <si>
+    <t>缺相怕炮</t>
+  </si>
   <si>
     <t>basic</t>
   </si>
@@ -30,16 +148,22 @@
   <si>
     <t>Guard</t>
   </si>
+  <si>
+    <t>Bishop
+Guard</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,14 +175,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,6 +193,29 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,16 +234,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +272,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -117,40 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,31 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +333,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,37 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,97 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,19 +423,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,8 +475,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -406,23 +530,94 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,17 +637,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,24 +704,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,159 +712,252 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,17 +1279,2586 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:W60"/>
+  <sheetViews>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="30" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="30" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="30"/>
+    <col min="6" max="6" width="9.375" style="30"/>
+    <col min="7" max="7" width="9" style="30"/>
+    <col min="8" max="8" width="12.625" style="30"/>
+    <col min="9" max="9" width="9" style="30"/>
+    <col min="10" max="10" width="12.625" style="30"/>
+    <col min="11" max="16384" width="9" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11">
+      <c r="C1" s="30">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30">
+        <v>2</v>
+      </c>
+      <c r="E1" s="30">
+        <v>3</v>
+      </c>
+      <c r="F1" s="30">
+        <v>4</v>
+      </c>
+      <c r="G1" s="30">
+        <v>5</v>
+      </c>
+      <c r="H1" s="30">
+        <v>6</v>
+      </c>
+      <c r="I1" s="30">
+        <v>7</v>
+      </c>
+      <c r="J1" s="30">
+        <v>8</v>
+      </c>
+      <c r="K1" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>690</v>
+      </c>
+      <c r="D2" s="30">
+        <v>546</v>
+      </c>
+      <c r="E2" s="30">
+        <v>247</v>
+      </c>
+      <c r="F2" s="30">
+        <v>215</v>
+      </c>
+      <c r="G2" s="30">
+        <v>42</v>
+      </c>
+      <c r="H2" s="30">
+        <v>111</v>
+      </c>
+      <c r="I2" s="30">
+        <v>250</v>
+      </c>
+      <c r="J2" s="30">
+        <v>626</v>
+      </c>
+      <c r="K2" s="30">
+        <v>413</v>
+      </c>
+      <c r="N2" s="34">
+        <v>10</v>
+      </c>
+      <c r="O2" s="34">
+        <v>894</v>
+      </c>
+      <c r="P2" s="34">
+        <v>1854</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>221</v>
+      </c>
+      <c r="R2" s="34">
+        <v>369</v>
+      </c>
+      <c r="S2" s="34">
+        <v>68</v>
+      </c>
+      <c r="T2" s="34">
+        <v>637</v>
+      </c>
+      <c r="U2" s="34">
+        <v>292</v>
+      </c>
+      <c r="V2" s="34">
+        <v>1562</v>
+      </c>
+      <c r="W2" s="34">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="31"/>
+      <c r="B3" s="30">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30">
+        <v>210</v>
+      </c>
+      <c r="D3" s="30">
+        <v>303</v>
+      </c>
+      <c r="E3" s="30">
+        <v>597</v>
+      </c>
+      <c r="F3" s="30">
+        <v>382</v>
+      </c>
+      <c r="G3" s="30">
+        <v>48</v>
+      </c>
+      <c r="H3" s="30">
+        <v>320</v>
+      </c>
+      <c r="I3" s="30">
+        <v>343</v>
+      </c>
+      <c r="J3" s="30">
+        <v>429</v>
+      </c>
+      <c r="K3" s="30">
+        <v>188</v>
+      </c>
+      <c r="N3" s="34">
+        <v>9</v>
+      </c>
+      <c r="O3" s="34">
+        <v>662</v>
+      </c>
+      <c r="P3" s="34">
+        <v>498</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>944</v>
+      </c>
+      <c r="R3" s="34">
+        <v>1008</v>
+      </c>
+      <c r="S3" s="34">
+        <v>526</v>
+      </c>
+      <c r="T3" s="34">
+        <v>1194</v>
+      </c>
+      <c r="U3" s="34">
+        <v>657</v>
+      </c>
+      <c r="V3" s="34">
+        <v>536</v>
+      </c>
+      <c r="W3" s="34">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="31"/>
+      <c r="B4" s="30">
+        <v>3</v>
+      </c>
+      <c r="C4" s="30">
+        <v>157</v>
+      </c>
+      <c r="D4" s="30">
+        <v>651</v>
+      </c>
+      <c r="E4" s="30">
+        <v>629</v>
+      </c>
+      <c r="F4" s="30">
+        <v>234</v>
+      </c>
+      <c r="G4" s="30">
+        <v>291</v>
+      </c>
+      <c r="H4" s="30">
+        <v>184</v>
+      </c>
+      <c r="I4" s="30">
+        <v>448</v>
+      </c>
+      <c r="J4" s="30">
+        <v>289</v>
+      </c>
+      <c r="K4" s="30">
+        <v>153</v>
+      </c>
+      <c r="N4" s="34">
+        <v>8</v>
+      </c>
+      <c r="O4" s="34">
+        <v>4232</v>
+      </c>
+      <c r="P4" s="34">
+        <v>1295</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>5288</v>
+      </c>
+      <c r="R4" s="34">
+        <v>2393</v>
+      </c>
+      <c r="S4" s="34">
+        <v>3910</v>
+      </c>
+      <c r="T4" s="34">
+        <v>1464</v>
+      </c>
+      <c r="U4" s="34">
+        <v>6374</v>
+      </c>
+      <c r="V4" s="34">
+        <v>1011</v>
+      </c>
+      <c r="W4" s="34">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="31"/>
+      <c r="B5" s="30">
+        <v>4</v>
+      </c>
+      <c r="C5" s="30">
+        <v>782</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1498</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1906</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1495</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1360</v>
+      </c>
+      <c r="H5" s="30">
+        <v>1536</v>
+      </c>
+      <c r="I5" s="30">
+        <v>1718</v>
+      </c>
+      <c r="J5" s="30">
+        <v>1401</v>
+      </c>
+      <c r="K5" s="30">
+        <v>742</v>
+      </c>
+      <c r="N5" s="34">
+        <v>7</v>
+      </c>
+      <c r="O5" s="34">
+        <v>182</v>
+      </c>
+      <c r="P5" s="34">
+        <v>736</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>558</v>
+      </c>
+      <c r="R5" s="34">
+        <v>694</v>
+      </c>
+      <c r="S5" s="34">
+        <v>1324</v>
+      </c>
+      <c r="T5" s="34">
+        <v>812</v>
+      </c>
+      <c r="U5" s="34">
+        <v>446</v>
+      </c>
+      <c r="V5" s="34">
+        <v>532</v>
+      </c>
+      <c r="W5" s="34">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="31"/>
+      <c r="B6" s="30">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30">
+        <v>411</v>
+      </c>
+      <c r="D6" s="30">
+        <v>715</v>
+      </c>
+      <c r="E6" s="30">
+        <v>192</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1115</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1210</v>
+      </c>
+      <c r="H6" s="30">
+        <v>1169</v>
+      </c>
+      <c r="I6" s="30">
+        <v>236</v>
+      </c>
+      <c r="J6" s="30">
+        <v>377</v>
+      </c>
+      <c r="K6" s="30">
+        <v>308</v>
+      </c>
+      <c r="N6" s="34">
+        <v>6</v>
+      </c>
+      <c r="O6" s="34">
+        <v>446</v>
+      </c>
+      <c r="P6" s="34">
+        <v>1846</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>1110</v>
+      </c>
+      <c r="R6" s="34">
+        <v>1932</v>
+      </c>
+      <c r="S6" s="34">
+        <v>1081</v>
+      </c>
+      <c r="T6" s="34">
+        <v>2044</v>
+      </c>
+      <c r="U6" s="34">
+        <v>1362</v>
+      </c>
+      <c r="V6" s="34">
+        <v>1560</v>
+      </c>
+      <c r="W6" s="34">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30">
+        <v>6</v>
+      </c>
+      <c r="C7" s="30">
+        <v>446</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1846</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1110</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1932</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1081</v>
+      </c>
+      <c r="H7" s="30">
+        <v>2044</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1362</v>
+      </c>
+      <c r="J7" s="30">
+        <v>1560</v>
+      </c>
+      <c r="K7" s="30">
+        <v>291</v>
+      </c>
+      <c r="N7" s="34">
+        <v>5</v>
+      </c>
+      <c r="O7" s="34">
+        <v>411</v>
+      </c>
+      <c r="P7" s="34">
+        <v>715</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>192</v>
+      </c>
+      <c r="R7" s="34">
+        <v>1115</v>
+      </c>
+      <c r="S7" s="34">
+        <v>1210</v>
+      </c>
+      <c r="T7" s="34">
+        <v>1169</v>
+      </c>
+      <c r="U7" s="34">
+        <v>236</v>
+      </c>
+      <c r="V7" s="34">
+        <v>377</v>
+      </c>
+      <c r="W7" s="34">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="31"/>
+      <c r="B8" s="30">
+        <v>7</v>
+      </c>
+      <c r="C8" s="30">
+        <v>182</v>
+      </c>
+      <c r="D8" s="30">
+        <v>736</v>
+      </c>
+      <c r="E8" s="30">
+        <v>558</v>
+      </c>
+      <c r="F8" s="30">
+        <v>694</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1324</v>
+      </c>
+      <c r="H8" s="30">
+        <v>812</v>
+      </c>
+      <c r="I8" s="30">
+        <v>446</v>
+      </c>
+      <c r="J8" s="30">
+        <v>532</v>
+      </c>
+      <c r="K8" s="30">
+        <v>234</v>
+      </c>
+      <c r="N8" s="34">
+        <v>4</v>
+      </c>
+      <c r="O8" s="34">
+        <v>782</v>
+      </c>
+      <c r="P8" s="34">
+        <v>1498</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>1906</v>
+      </c>
+      <c r="R8" s="34">
+        <v>1495</v>
+      </c>
+      <c r="S8" s="34">
+        <v>1360</v>
+      </c>
+      <c r="T8" s="34">
+        <v>1536</v>
+      </c>
+      <c r="U8" s="34">
+        <v>1718</v>
+      </c>
+      <c r="V8" s="34">
+        <v>1401</v>
+      </c>
+      <c r="W8" s="34">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="31"/>
+      <c r="B9" s="30">
+        <v>8</v>
+      </c>
+      <c r="C9" s="30">
+        <v>4232</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1295</v>
+      </c>
+      <c r="E9" s="30">
+        <v>5288</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2393</v>
+      </c>
+      <c r="G9" s="30">
+        <v>3910</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1464</v>
+      </c>
+      <c r="I9" s="30">
+        <v>6374</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1011</v>
+      </c>
+      <c r="K9" s="30">
+        <v>1360</v>
+      </c>
+      <c r="N9" s="34">
+        <v>3</v>
+      </c>
+      <c r="O9" s="34">
+        <v>157</v>
+      </c>
+      <c r="P9" s="34">
+        <v>651</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>629</v>
+      </c>
+      <c r="R9" s="34">
+        <v>234</v>
+      </c>
+      <c r="S9" s="34">
+        <v>291</v>
+      </c>
+      <c r="T9" s="34">
+        <v>184</v>
+      </c>
+      <c r="U9" s="34">
+        <v>448</v>
+      </c>
+      <c r="V9" s="34">
+        <v>289</v>
+      </c>
+      <c r="W9" s="34">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="31"/>
+      <c r="B10" s="30">
+        <v>9</v>
+      </c>
+      <c r="C10" s="30">
+        <v>662</v>
+      </c>
+      <c r="D10" s="30">
+        <v>498</v>
+      </c>
+      <c r="E10" s="30">
+        <v>944</v>
+      </c>
+      <c r="F10" s="30">
+        <v>1008</v>
+      </c>
+      <c r="G10" s="30">
+        <v>526</v>
+      </c>
+      <c r="H10" s="30">
+        <v>1194</v>
+      </c>
+      <c r="I10" s="30">
+        <v>657</v>
+      </c>
+      <c r="J10" s="30">
+        <v>536</v>
+      </c>
+      <c r="K10" s="30">
+        <v>672</v>
+      </c>
+      <c r="N10" s="34">
+        <v>2</v>
+      </c>
+      <c r="O10" s="34">
+        <v>210</v>
+      </c>
+      <c r="P10" s="34">
+        <v>303</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>597</v>
+      </c>
+      <c r="R10" s="34">
+        <v>382</v>
+      </c>
+      <c r="S10" s="34">
+        <v>48</v>
+      </c>
+      <c r="T10" s="34">
+        <v>320</v>
+      </c>
+      <c r="U10" s="34">
+        <v>343</v>
+      </c>
+      <c r="V10" s="34">
+        <v>429</v>
+      </c>
+      <c r="W10" s="34">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="31"/>
+      <c r="B11" s="30">
+        <v>10</v>
+      </c>
+      <c r="C11" s="30">
+        <v>894</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1854</v>
+      </c>
+      <c r="E11" s="30">
+        <v>221</v>
+      </c>
+      <c r="F11" s="30">
+        <v>369</v>
+      </c>
+      <c r="G11" s="30">
+        <v>68</v>
+      </c>
+      <c r="H11" s="30">
+        <v>637</v>
+      </c>
+      <c r="I11" s="30">
+        <v>292</v>
+      </c>
+      <c r="J11" s="30">
+        <v>1562</v>
+      </c>
+      <c r="K11" s="30">
+        <v>612</v>
+      </c>
+      <c r="N11" s="34">
+        <v>1</v>
+      </c>
+      <c r="O11" s="34">
+        <v>690</v>
+      </c>
+      <c r="P11" s="34">
+        <v>546</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>247</v>
+      </c>
+      <c r="R11" s="34">
+        <v>215</v>
+      </c>
+      <c r="S11" s="34">
+        <v>42</v>
+      </c>
+      <c r="T11" s="34">
+        <v>111</v>
+      </c>
+      <c r="U11" s="34">
+        <v>250</v>
+      </c>
+      <c r="V11" s="34">
+        <v>626</v>
+      </c>
+      <c r="W11" s="34">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1190</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2363</v>
+      </c>
+      <c r="E13" s="30">
+        <v>303</v>
+      </c>
+      <c r="F13" s="30">
+        <v>629</v>
+      </c>
+      <c r="G13" s="30">
+        <v>79</v>
+      </c>
+      <c r="H13" s="30">
+        <v>512</v>
+      </c>
+      <c r="I13" s="30">
+        <v>472</v>
+      </c>
+      <c r="J13" s="30">
+        <v>2925</v>
+      </c>
+      <c r="K13" s="30">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30">
+        <v>2</v>
+      </c>
+      <c r="C14" s="30">
+        <v>592</v>
+      </c>
+      <c r="D14" s="30">
+        <v>711</v>
+      </c>
+      <c r="E14" s="30">
+        <v>815</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1263</v>
+      </c>
+      <c r="G14" s="30">
+        <v>359</v>
+      </c>
+      <c r="H14" s="30">
+        <v>994</v>
+      </c>
+      <c r="I14" s="30">
+        <v>944</v>
+      </c>
+      <c r="J14" s="30">
+        <v>421</v>
+      </c>
+      <c r="K14" s="30">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="31"/>
+      <c r="B15" s="30">
+        <v>3</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1982</v>
+      </c>
+      <c r="D15" s="30">
+        <v>2291</v>
+      </c>
+      <c r="E15" s="30">
+        <v>5911</v>
+      </c>
+      <c r="F15" s="30">
+        <v>2008</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1096</v>
+      </c>
+      <c r="H15" s="30">
+        <v>2236</v>
+      </c>
+      <c r="I15" s="30">
+        <v>6213</v>
+      </c>
+      <c r="J15" s="30">
+        <v>1881</v>
+      </c>
+      <c r="K15" s="30">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="31"/>
+      <c r="B16" s="30">
+        <v>4</v>
+      </c>
+      <c r="C16" s="30">
+        <v>418</v>
+      </c>
+      <c r="D16" s="30">
+        <v>911</v>
+      </c>
+      <c r="E16" s="30">
+        <v>638</v>
+      </c>
+      <c r="F16" s="30">
+        <v>832</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1363</v>
+      </c>
+      <c r="H16" s="30">
+        <v>690</v>
+      </c>
+      <c r="I16" s="30">
+        <v>523</v>
+      </c>
+      <c r="J16" s="30">
+        <v>749</v>
+      </c>
+      <c r="K16" s="30">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="31"/>
+      <c r="B17" s="30">
+        <v>5</v>
+      </c>
+      <c r="C17" s="30">
+        <v>216</v>
+      </c>
+      <c r="D17" s="30">
+        <v>1971</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1339</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1205</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1111</v>
+      </c>
+      <c r="H17" s="30">
+        <v>1558</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1110</v>
+      </c>
+      <c r="J17" s="30">
+        <v>1912</v>
+      </c>
+      <c r="K17" s="30">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="31"/>
+      <c r="B18" s="30">
+        <v>6</v>
+      </c>
+      <c r="C18" s="30">
+        <v>479</v>
+      </c>
+      <c r="D18" s="30">
+        <v>535</v>
+      </c>
+      <c r="E18" s="30">
+        <v>354</v>
+      </c>
+      <c r="F18" s="30">
+        <v>1209</v>
+      </c>
+      <c r="G18" s="30">
+        <v>1228</v>
+      </c>
+      <c r="H18" s="30">
+        <v>906</v>
+      </c>
+      <c r="I18" s="30">
+        <v>321</v>
+      </c>
+      <c r="J18" s="30">
+        <v>587</v>
+      </c>
+      <c r="K18" s="30">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="31"/>
+      <c r="B19" s="30">
+        <v>7</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1125</v>
+      </c>
+      <c r="D19" s="30">
+        <v>1261</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1137</v>
+      </c>
+      <c r="F19" s="30">
+        <v>1175</v>
+      </c>
+      <c r="G19" s="30">
+        <v>1415</v>
+      </c>
+      <c r="H19" s="30">
+        <v>1220</v>
+      </c>
+      <c r="I19" s="30">
+        <v>1819</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1281</v>
+      </c>
+      <c r="K19" s="30">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="31"/>
+      <c r="B20" s="30">
+        <v>8</v>
+      </c>
+      <c r="C20" s="30">
+        <v>150</v>
+      </c>
+      <c r="D20" s="30">
+        <v>390</v>
+      </c>
+      <c r="E20" s="30">
+        <v>499</v>
+      </c>
+      <c r="F20" s="30">
+        <v>213</v>
+      </c>
+      <c r="G20" s="30">
+        <v>184</v>
+      </c>
+      <c r="H20" s="30">
+        <v>183</v>
+      </c>
+      <c r="I20" s="30">
+        <v>396</v>
+      </c>
+      <c r="J20" s="30">
+        <v>434</v>
+      </c>
+      <c r="K20" s="30">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="31"/>
+      <c r="B21" s="30">
+        <v>9</v>
+      </c>
+      <c r="C21" s="30">
+        <v>210</v>
+      </c>
+      <c r="D21" s="30">
+        <v>362</v>
+      </c>
+      <c r="E21" s="30">
+        <v>456</v>
+      </c>
+      <c r="F21" s="30">
+        <v>415</v>
+      </c>
+      <c r="G21" s="30">
+        <v>71</v>
+      </c>
+      <c r="H21" s="30">
+        <v>365</v>
+      </c>
+      <c r="I21" s="30">
+        <v>386</v>
+      </c>
+      <c r="J21" s="30">
+        <v>433</v>
+      </c>
+      <c r="K21" s="30">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="31"/>
+      <c r="B22" s="30">
+        <v>10</v>
+      </c>
+      <c r="C22" s="30">
+        <v>479</v>
+      </c>
+      <c r="D22" s="30">
+        <v>462</v>
+      </c>
+      <c r="E22" s="30">
+        <v>286</v>
+      </c>
+      <c r="F22" s="30">
+        <v>104</v>
+      </c>
+      <c r="G22" s="30">
+        <v>30</v>
+      </c>
+      <c r="H22" s="30">
+        <v>77</v>
+      </c>
+      <c r="I22" s="30">
+        <v>252</v>
+      </c>
+      <c r="J22" s="30">
+        <v>552</v>
+      </c>
+      <c r="K22" s="30">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="30">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30">
+        <f t="shared" ref="C25:K25" si="0">C2+C13</f>
+        <v>1880</v>
+      </c>
+      <c r="D25" s="30">
+        <f t="shared" si="0"/>
+        <v>2909</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="0"/>
+        <v>844</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" si="0"/>
+        <v>623</v>
+      </c>
+      <c r="I25" s="30">
+        <f t="shared" si="0"/>
+        <v>722</v>
+      </c>
+      <c r="J25" s="30">
+        <f t="shared" si="0"/>
+        <v>3551</v>
+      </c>
+      <c r="K25" s="30">
+        <f t="shared" si="0"/>
+        <v>1386</v>
+      </c>
+      <c r="O25" s="30">
+        <f t="shared" ref="O25:W25" si="1">C13+O2</f>
+        <v>2084</v>
+      </c>
+      <c r="P25" s="30">
+        <f t="shared" si="1"/>
+        <v>4217</v>
+      </c>
+      <c r="Q25" s="30">
+        <f t="shared" si="1"/>
+        <v>524</v>
+      </c>
+      <c r="R25" s="30">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="S25" s="30">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="T25" s="30">
+        <f t="shared" si="1"/>
+        <v>1149</v>
+      </c>
+      <c r="U25" s="30">
+        <f t="shared" si="1"/>
+        <v>764</v>
+      </c>
+      <c r="V25" s="30">
+        <f t="shared" si="1"/>
+        <v>4487</v>
+      </c>
+      <c r="W25" s="30">
+        <f t="shared" si="1"/>
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30">
+        <v>2</v>
+      </c>
+      <c r="C26" s="30">
+        <f t="shared" ref="C26:K26" si="2">C3+C14</f>
+        <v>802</v>
+      </c>
+      <c r="D26" s="30">
+        <f t="shared" si="2"/>
+        <v>1014</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="F26" s="32">
+        <f t="shared" si="2"/>
+        <v>1645</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" si="2"/>
+        <v>407</v>
+      </c>
+      <c r="H26" s="32">
+        <f t="shared" si="2"/>
+        <v>1314</v>
+      </c>
+      <c r="I26" s="30">
+        <f t="shared" si="2"/>
+        <v>1287</v>
+      </c>
+      <c r="J26" s="30">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="K26" s="30">
+        <f t="shared" si="2"/>
+        <v>908</v>
+      </c>
+      <c r="O26" s="30">
+        <f t="shared" ref="O26:W26" si="3">C14+O3</f>
+        <v>1254</v>
+      </c>
+      <c r="P26" s="30">
+        <f t="shared" si="3"/>
+        <v>1209</v>
+      </c>
+      <c r="Q26" s="30">
+        <f t="shared" si="3"/>
+        <v>1759</v>
+      </c>
+      <c r="R26" s="30">
+        <f t="shared" si="3"/>
+        <v>2271</v>
+      </c>
+      <c r="S26" s="30">
+        <f t="shared" si="3"/>
+        <v>885</v>
+      </c>
+      <c r="T26" s="30">
+        <f t="shared" si="3"/>
+        <v>2188</v>
+      </c>
+      <c r="U26" s="30">
+        <f t="shared" si="3"/>
+        <v>1601</v>
+      </c>
+      <c r="V26" s="30">
+        <f t="shared" si="3"/>
+        <v>957</v>
+      </c>
+      <c r="W26" s="30">
+        <f t="shared" si="3"/>
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="31"/>
+      <c r="B27" s="30">
+        <v>3</v>
+      </c>
+      <c r="C27" s="30">
+        <f t="shared" ref="C27:K27" si="4">C4+C15</f>
+        <v>2139</v>
+      </c>
+      <c r="D27" s="30">
+        <f t="shared" si="4"/>
+        <v>2942</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="4"/>
+        <v>6540</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="4"/>
+        <v>2242</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="4"/>
+        <v>1387</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="4"/>
+        <v>2420</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="4"/>
+        <v>6661</v>
+      </c>
+      <c r="J27" s="30">
+        <f t="shared" si="4"/>
+        <v>2170</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" si="4"/>
+        <v>2361</v>
+      </c>
+      <c r="O27" s="30">
+        <f t="shared" ref="O27:W27" si="5">C15+O4</f>
+        <v>6214</v>
+      </c>
+      <c r="P27" s="30">
+        <f t="shared" si="5"/>
+        <v>3586</v>
+      </c>
+      <c r="Q27" s="30">
+        <f t="shared" si="5"/>
+        <v>11199</v>
+      </c>
+      <c r="R27" s="30">
+        <f t="shared" si="5"/>
+        <v>4401</v>
+      </c>
+      <c r="S27" s="30">
+        <f t="shared" si="5"/>
+        <v>5006</v>
+      </c>
+      <c r="T27" s="30">
+        <f t="shared" si="5"/>
+        <v>3700</v>
+      </c>
+      <c r="U27" s="30">
+        <f t="shared" si="5"/>
+        <v>12587</v>
+      </c>
+      <c r="V27" s="30">
+        <f t="shared" si="5"/>
+        <v>2892</v>
+      </c>
+      <c r="W27" s="30">
+        <f t="shared" si="5"/>
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="31"/>
+      <c r="B28" s="30">
+        <v>4</v>
+      </c>
+      <c r="C28" s="30">
+        <f t="shared" ref="C28:K28" si="6">C5+C16</f>
+        <v>1200</v>
+      </c>
+      <c r="D28" s="30">
+        <f t="shared" si="6"/>
+        <v>2409</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="6"/>
+        <v>2544</v>
+      </c>
+      <c r="F28" s="30">
+        <f t="shared" si="6"/>
+        <v>2327</v>
+      </c>
+      <c r="G28" s="30">
+        <f t="shared" si="6"/>
+        <v>2723</v>
+      </c>
+      <c r="H28" s="30">
+        <f t="shared" si="6"/>
+        <v>2226</v>
+      </c>
+      <c r="I28" s="30">
+        <f t="shared" si="6"/>
+        <v>2241</v>
+      </c>
+      <c r="J28" s="30">
+        <f t="shared" si="6"/>
+        <v>2150</v>
+      </c>
+      <c r="K28" s="30">
+        <f t="shared" si="6"/>
+        <v>966</v>
+      </c>
+      <c r="O28" s="30">
+        <f t="shared" ref="O28:W28" si="7">C16+O5</f>
+        <v>600</v>
+      </c>
+      <c r="P28" s="30">
+        <f t="shared" si="7"/>
+        <v>1647</v>
+      </c>
+      <c r="Q28" s="30">
+        <f t="shared" si="7"/>
+        <v>1196</v>
+      </c>
+      <c r="R28" s="30">
+        <f t="shared" si="7"/>
+        <v>1526</v>
+      </c>
+      <c r="S28" s="30">
+        <f t="shared" si="7"/>
+        <v>2687</v>
+      </c>
+      <c r="T28" s="30">
+        <f t="shared" si="7"/>
+        <v>1502</v>
+      </c>
+      <c r="U28" s="30">
+        <f t="shared" si="7"/>
+        <v>969</v>
+      </c>
+      <c r="V28" s="30">
+        <f t="shared" si="7"/>
+        <v>1281</v>
+      </c>
+      <c r="W28" s="30">
+        <f t="shared" si="7"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="31"/>
+      <c r="B29" s="30">
+        <v>5</v>
+      </c>
+      <c r="C29" s="30">
+        <f t="shared" ref="C29:K29" si="8">C6+C17</f>
+        <v>627</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" si="8"/>
+        <v>2686</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="8"/>
+        <v>1531</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="8"/>
+        <v>2320</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="8"/>
+        <v>2321</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="8"/>
+        <v>2727</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="8"/>
+        <v>1346</v>
+      </c>
+      <c r="J29" s="30">
+        <f t="shared" si="8"/>
+        <v>2289</v>
+      </c>
+      <c r="K29" s="30">
+        <f t="shared" si="8"/>
+        <v>598</v>
+      </c>
+      <c r="O29" s="30">
+        <f t="shared" ref="O29:W29" si="9">C17+O6</f>
+        <v>662</v>
+      </c>
+      <c r="P29" s="30">
+        <f t="shared" si="9"/>
+        <v>3817</v>
+      </c>
+      <c r="Q29" s="30">
+        <f t="shared" si="9"/>
+        <v>2449</v>
+      </c>
+      <c r="R29" s="30">
+        <f t="shared" si="9"/>
+        <v>3137</v>
+      </c>
+      <c r="S29" s="30">
+        <f t="shared" si="9"/>
+        <v>2192</v>
+      </c>
+      <c r="T29" s="30">
+        <f t="shared" si="9"/>
+        <v>3602</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" si="9"/>
+        <v>2472</v>
+      </c>
+      <c r="V29" s="30">
+        <f t="shared" si="9"/>
+        <v>3472</v>
+      </c>
+      <c r="W29" s="30">
+        <f t="shared" si="9"/>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="30">
+        <f t="shared" ref="C30:K30" si="10">C7+C18</f>
+        <v>925</v>
+      </c>
+      <c r="D30" s="30">
+        <f t="shared" si="10"/>
+        <v>2381</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="10"/>
+        <v>1464</v>
+      </c>
+      <c r="F30" s="30">
+        <f t="shared" si="10"/>
+        <v>3141</v>
+      </c>
+      <c r="G30" s="30">
+        <f t="shared" si="10"/>
+        <v>2309</v>
+      </c>
+      <c r="H30" s="30">
+        <f t="shared" si="10"/>
+        <v>2950</v>
+      </c>
+      <c r="I30" s="30">
+        <f t="shared" si="10"/>
+        <v>1683</v>
+      </c>
+      <c r="J30" s="30">
+        <f t="shared" si="10"/>
+        <v>2147</v>
+      </c>
+      <c r="K30" s="30">
+        <f t="shared" si="10"/>
+        <v>670</v>
+      </c>
+      <c r="O30" s="30">
+        <f t="shared" ref="O30:W30" si="11">C18+O7</f>
+        <v>890</v>
+      </c>
+      <c r="P30" s="30">
+        <f t="shared" si="11"/>
+        <v>1250</v>
+      </c>
+      <c r="Q30" s="30">
+        <f t="shared" si="11"/>
+        <v>546</v>
+      </c>
+      <c r="R30" s="30">
+        <f t="shared" si="11"/>
+        <v>2324</v>
+      </c>
+      <c r="S30" s="30">
+        <f t="shared" si="11"/>
+        <v>2438</v>
+      </c>
+      <c r="T30" s="30">
+        <f t="shared" si="11"/>
+        <v>2075</v>
+      </c>
+      <c r="U30" s="30">
+        <f t="shared" si="11"/>
+        <v>557</v>
+      </c>
+      <c r="V30" s="30">
+        <f t="shared" si="11"/>
+        <v>964</v>
+      </c>
+      <c r="W30" s="30">
+        <f t="shared" si="11"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="31"/>
+      <c r="B31" s="30">
+        <v>7</v>
+      </c>
+      <c r="C31" s="30">
+        <f t="shared" ref="C31:K31" si="12">C8+C19</f>
+        <v>1307</v>
+      </c>
+      <c r="D31" s="30">
+        <f t="shared" si="12"/>
+        <v>1997</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="12"/>
+        <v>1695</v>
+      </c>
+      <c r="F31" s="30">
+        <f t="shared" si="12"/>
+        <v>1869</v>
+      </c>
+      <c r="G31" s="30">
+        <f t="shared" si="12"/>
+        <v>2739</v>
+      </c>
+      <c r="H31" s="30">
+        <f t="shared" si="12"/>
+        <v>2032</v>
+      </c>
+      <c r="I31" s="30">
+        <f t="shared" si="12"/>
+        <v>2265</v>
+      </c>
+      <c r="J31" s="30">
+        <f t="shared" si="12"/>
+        <v>1813</v>
+      </c>
+      <c r="K31" s="30">
+        <f t="shared" si="12"/>
+        <v>1142</v>
+      </c>
+      <c r="O31" s="30">
+        <f t="shared" ref="O31:W31" si="13">C19+O8</f>
+        <v>1907</v>
+      </c>
+      <c r="P31" s="30">
+        <f t="shared" si="13"/>
+        <v>2759</v>
+      </c>
+      <c r="Q31" s="30">
+        <f t="shared" si="13"/>
+        <v>3043</v>
+      </c>
+      <c r="R31" s="30">
+        <f t="shared" si="13"/>
+        <v>2670</v>
+      </c>
+      <c r="S31" s="30">
+        <f t="shared" si="13"/>
+        <v>2775</v>
+      </c>
+      <c r="T31" s="30">
+        <f t="shared" si="13"/>
+        <v>2756</v>
+      </c>
+      <c r="U31" s="30">
+        <f t="shared" si="13"/>
+        <v>3537</v>
+      </c>
+      <c r="V31" s="30">
+        <f t="shared" si="13"/>
+        <v>2682</v>
+      </c>
+      <c r="W31" s="30">
+        <f t="shared" si="13"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="31"/>
+      <c r="B32" s="30">
+        <v>8</v>
+      </c>
+      <c r="C32" s="30">
+        <f t="shared" ref="C32:K32" si="14">C9+C20</f>
+        <v>4382</v>
+      </c>
+      <c r="D32" s="30">
+        <f t="shared" si="14"/>
+        <v>1685</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="14"/>
+        <v>5787</v>
+      </c>
+      <c r="F32" s="32">
+        <f t="shared" si="14"/>
+        <v>2606</v>
+      </c>
+      <c r="G32" s="32">
+        <f t="shared" si="14"/>
+        <v>4094</v>
+      </c>
+      <c r="H32" s="32">
+        <f t="shared" si="14"/>
+        <v>1647</v>
+      </c>
+      <c r="I32" s="30">
+        <f t="shared" si="14"/>
+        <v>6770</v>
+      </c>
+      <c r="J32" s="30">
+        <f t="shared" si="14"/>
+        <v>1445</v>
+      </c>
+      <c r="K32" s="30">
+        <f t="shared" si="14"/>
+        <v>1464</v>
+      </c>
+      <c r="O32" s="30">
+        <f t="shared" ref="O32:W32" si="15">C20+O9</f>
+        <v>307</v>
+      </c>
+      <c r="P32" s="30">
+        <f t="shared" si="15"/>
+        <v>1041</v>
+      </c>
+      <c r="Q32" s="30">
+        <f t="shared" si="15"/>
+        <v>1128</v>
+      </c>
+      <c r="R32" s="30">
+        <f t="shared" si="15"/>
+        <v>447</v>
+      </c>
+      <c r="S32" s="30">
+        <f t="shared" si="15"/>
+        <v>475</v>
+      </c>
+      <c r="T32" s="30">
+        <f t="shared" si="15"/>
+        <v>367</v>
+      </c>
+      <c r="U32" s="30">
+        <f t="shared" si="15"/>
+        <v>844</v>
+      </c>
+      <c r="V32" s="30">
+        <f t="shared" si="15"/>
+        <v>723</v>
+      </c>
+      <c r="W32" s="30">
+        <f t="shared" si="15"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="31"/>
+      <c r="B33" s="30">
+        <v>9</v>
+      </c>
+      <c r="C33" s="30">
+        <f t="shared" ref="C33:K33" si="16">C10+C21</f>
+        <v>872</v>
+      </c>
+      <c r="D33" s="30">
+        <f t="shared" si="16"/>
+        <v>860</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="16"/>
+        <v>1400</v>
+      </c>
+      <c r="F33" s="32">
+        <f t="shared" si="16"/>
+        <v>1423</v>
+      </c>
+      <c r="G33" s="32">
+        <f t="shared" si="16"/>
+        <v>597</v>
+      </c>
+      <c r="H33" s="32">
+        <f t="shared" si="16"/>
+        <v>1559</v>
+      </c>
+      <c r="I33" s="30">
+        <f t="shared" si="16"/>
+        <v>1043</v>
+      </c>
+      <c r="J33" s="30">
+        <f t="shared" si="16"/>
+        <v>969</v>
+      </c>
+      <c r="K33" s="30">
+        <f t="shared" si="16"/>
+        <v>849</v>
+      </c>
+      <c r="O33" s="30">
+        <f t="shared" ref="O33:W33" si="17">C21+O10</f>
+        <v>420</v>
+      </c>
+      <c r="P33" s="30">
+        <f t="shared" si="17"/>
+        <v>665</v>
+      </c>
+      <c r="Q33" s="30">
+        <f t="shared" si="17"/>
+        <v>1053</v>
+      </c>
+      <c r="R33" s="30">
+        <f t="shared" si="17"/>
+        <v>797</v>
+      </c>
+      <c r="S33" s="30">
+        <f t="shared" si="17"/>
+        <v>119</v>
+      </c>
+      <c r="T33" s="30">
+        <f t="shared" si="17"/>
+        <v>685</v>
+      </c>
+      <c r="U33" s="30">
+        <f t="shared" si="17"/>
+        <v>729</v>
+      </c>
+      <c r="V33" s="30">
+        <f t="shared" si="17"/>
+        <v>862</v>
+      </c>
+      <c r="W33" s="30">
+        <f t="shared" si="17"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="31"/>
+      <c r="B34" s="30">
+        <v>10</v>
+      </c>
+      <c r="C34" s="30">
+        <f t="shared" ref="C34:K34" si="18">C11+C22</f>
+        <v>1373</v>
+      </c>
+      <c r="D34" s="30">
+        <f t="shared" si="18"/>
+        <v>2316</v>
+      </c>
+      <c r="E34" s="30">
+        <f t="shared" si="18"/>
+        <v>507</v>
+      </c>
+      <c r="F34" s="32">
+        <f t="shared" si="18"/>
+        <v>473</v>
+      </c>
+      <c r="G34" s="32">
+        <f t="shared" si="18"/>
+        <v>98</v>
+      </c>
+      <c r="H34" s="32">
+        <f t="shared" si="18"/>
+        <v>714</v>
+      </c>
+      <c r="I34" s="30">
+        <f t="shared" si="18"/>
+        <v>544</v>
+      </c>
+      <c r="J34" s="30">
+        <f t="shared" si="18"/>
+        <v>2114</v>
+      </c>
+      <c r="K34" s="30">
+        <f t="shared" si="18"/>
+        <v>1129</v>
+      </c>
+      <c r="O34" s="30">
+        <f t="shared" ref="O34:W34" si="19">C22+O11</f>
+        <v>1169</v>
+      </c>
+      <c r="P34" s="30">
+        <f t="shared" si="19"/>
+        <v>1008</v>
+      </c>
+      <c r="Q34" s="30">
+        <f t="shared" si="19"/>
+        <v>533</v>
+      </c>
+      <c r="R34" s="30">
+        <f t="shared" si="19"/>
+        <v>319</v>
+      </c>
+      <c r="S34" s="30">
+        <f t="shared" si="19"/>
+        <v>72</v>
+      </c>
+      <c r="T34" s="30">
+        <f t="shared" si="19"/>
+        <v>188</v>
+      </c>
+      <c r="U34" s="30">
+        <f t="shared" si="19"/>
+        <v>502</v>
+      </c>
+      <c r="V34" s="30">
+        <f t="shared" si="19"/>
+        <v>1178</v>
+      </c>
+      <c r="W34" s="30">
+        <f t="shared" si="19"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="30">
+        <v>8</v>
+      </c>
+      <c r="K37" s="30">
+        <f>COMBIN(89,4)</f>
+        <v>2441626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="33">
+        <f>4/89*5.6/4</f>
+        <v>0.0629213483146067</v>
+      </c>
+      <c r="D38" s="30">
+        <f>E48-31*B38</f>
+        <v>3.69388264669164</v>
+      </c>
+      <c r="E38" s="30">
+        <f>E48-2*B38</f>
+        <v>5.51860174781523</v>
+      </c>
+      <c r="F38" s="30">
+        <f>FACT(4)</f>
+        <v>24</v>
+      </c>
+      <c r="O38" s="30">
+        <f>(O25+W25)/2</f>
+        <v>1834.5</v>
+      </c>
+      <c r="P38" s="30">
+        <f>(P25+X25)/2</f>
+        <v>2108.5</v>
+      </c>
+      <c r="Q38" s="30">
+        <f>(Q25+Y25)/2</f>
+        <v>262</v>
+      </c>
+      <c r="R38" s="30">
+        <f>(R25+Z25)/2</f>
+        <v>499</v>
+      </c>
+      <c r="S38" s="30">
+        <f>S25</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="30">
+        <f>E50</f>
+        <v>2.28571428571429</v>
+      </c>
+      <c r="F39" s="30">
+        <f>89*88*87*86</f>
+        <v>58599024</v>
+      </c>
+      <c r="H39" s="30">
+        <f>F38/F39</f>
+        <v>4.09563135386009e-7</v>
+      </c>
+      <c r="J39" s="30">
+        <f>POWER(H39,1/4)</f>
+        <v>0.0252976520426752</v>
+      </c>
+      <c r="O39" s="30">
+        <f t="shared" ref="O39:O47" si="20">(O26+W26)/2</f>
+        <v>1323</v>
+      </c>
+      <c r="P39" s="30">
+        <f t="shared" ref="P39:P47" si="21">(P26+X26)/2</f>
+        <v>604.5</v>
+      </c>
+      <c r="Q39" s="30">
+        <f t="shared" ref="Q39:Q47" si="22">(Q26+Y26)/2</f>
+        <v>879.5</v>
+      </c>
+      <c r="R39" s="30">
+        <f t="shared" ref="R39:R47" si="23">(R26+Z26)/2</f>
+        <v>1135.5</v>
+      </c>
+      <c r="S39" s="30">
+        <f t="shared" ref="S39:S47" si="24">S26</f>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="30">
+        <f>1/89</f>
+        <v>0.0112359550561798</v>
+      </c>
+      <c r="D40" s="30">
+        <f>E50-14*B40</f>
+        <v>2.12841091492777</v>
+      </c>
+      <c r="E40" s="30">
+        <f>B39-B40</f>
+        <v>2.27447833065811</v>
+      </c>
+      <c r="O40" s="30">
+        <f t="shared" si="20"/>
+        <v>4891</v>
+      </c>
+      <c r="P40" s="30">
+        <f t="shared" si="21"/>
+        <v>1793</v>
+      </c>
+      <c r="Q40" s="30">
+        <f t="shared" si="22"/>
+        <v>5599.5</v>
+      </c>
+      <c r="R40" s="30">
+        <f t="shared" si="23"/>
+        <v>2200.5</v>
+      </c>
+      <c r="S40" s="30">
+        <f t="shared" si="24"/>
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="30">
+        <v>8</v>
+      </c>
+      <c r="O41" s="30">
+        <f t="shared" si="20"/>
+        <v>529</v>
+      </c>
+      <c r="P41" s="30">
+        <f t="shared" si="21"/>
+        <v>823.5</v>
+      </c>
+      <c r="Q41" s="30">
+        <f t="shared" si="22"/>
+        <v>598</v>
+      </c>
+      <c r="R41" s="30">
+        <f t="shared" si="23"/>
+        <v>763</v>
+      </c>
+      <c r="S41" s="30">
+        <f t="shared" si="24"/>
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="30">
+        <f>13/89*13/4/2</f>
+        <v>0.237359550561798</v>
+      </c>
+      <c r="D42" s="30">
+        <f>B42*31</f>
+        <v>7.35814606741573</v>
+      </c>
+      <c r="E42" s="30">
+        <f>2*B42</f>
+        <v>0.474719101123595</v>
+      </c>
+      <c r="H42" s="30">
+        <f>14.5/17</f>
+        <v>0.852941176470588</v>
+      </c>
+      <c r="O42" s="30">
+        <f t="shared" si="20"/>
+        <v>621.5</v>
+      </c>
+      <c r="P42" s="30">
+        <f t="shared" si="21"/>
+        <v>1908.5</v>
+      </c>
+      <c r="Q42" s="30">
+        <f t="shared" si="22"/>
+        <v>1224.5</v>
+      </c>
+      <c r="R42" s="30">
+        <f t="shared" si="23"/>
+        <v>1568.5</v>
+      </c>
+      <c r="S42" s="30">
+        <f t="shared" si="24"/>
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="43" spans="8:19">
+      <c r="H43" s="30">
+        <f>4/9</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="O43" s="30">
+        <f t="shared" si="20"/>
+        <v>788.5</v>
+      </c>
+      <c r="P43" s="30">
+        <f t="shared" si="21"/>
+        <v>625</v>
+      </c>
+      <c r="Q43" s="30">
+        <f t="shared" si="22"/>
+        <v>273</v>
+      </c>
+      <c r="R43" s="30">
+        <f t="shared" si="23"/>
+        <v>1162</v>
+      </c>
+      <c r="S43" s="30">
+        <f t="shared" si="24"/>
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="44" spans="15:19">
+      <c r="O44" s="30">
+        <f t="shared" si="20"/>
+        <v>1778.5</v>
+      </c>
+      <c r="P44" s="30">
+        <f t="shared" si="21"/>
+        <v>1379.5</v>
+      </c>
+      <c r="Q44" s="30">
+        <f t="shared" si="22"/>
+        <v>1521.5</v>
+      </c>
+      <c r="R44" s="30">
+        <f t="shared" si="23"/>
+        <v>1335</v>
+      </c>
+      <c r="S44" s="30">
+        <f t="shared" si="24"/>
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="45" spans="15:19">
+      <c r="O45" s="30">
+        <f t="shared" si="20"/>
+        <v>282</v>
+      </c>
+      <c r="P45" s="30">
+        <f t="shared" si="21"/>
+        <v>520.5</v>
+      </c>
+      <c r="Q45" s="30">
+        <f t="shared" si="22"/>
+        <v>564</v>
+      </c>
+      <c r="R45" s="30">
+        <f t="shared" si="23"/>
+        <v>223.5</v>
+      </c>
+      <c r="S45" s="30">
+        <f t="shared" si="24"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="30">
+        <f>28*3+8*2+7*2+2</f>
+        <v>116</v>
+      </c>
+      <c r="E46" s="30">
+        <f>D46/45</f>
+        <v>2.57777777777778</v>
+      </c>
+      <c r="O46" s="30">
+        <f t="shared" si="20"/>
+        <v>392.5</v>
+      </c>
+      <c r="P46" s="30">
+        <f t="shared" si="21"/>
+        <v>332.5</v>
+      </c>
+      <c r="Q46" s="30">
+        <f t="shared" si="22"/>
+        <v>526.5</v>
+      </c>
+      <c r="R46" s="30">
+        <f t="shared" si="23"/>
+        <v>398.5</v>
+      </c>
+      <c r="S46" s="30">
+        <f t="shared" si="24"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="30">
+        <f>2*4+3*4+4</f>
+        <v>24</v>
+      </c>
+      <c r="E47" s="30">
+        <f>D47/9</f>
+        <v>2.66666666666667</v>
+      </c>
+      <c r="O47" s="30">
+        <f t="shared" si="20"/>
+        <v>1049.5</v>
+      </c>
+      <c r="P47" s="30">
+        <f t="shared" si="21"/>
+        <v>504</v>
+      </c>
+      <c r="Q47" s="30">
+        <f t="shared" si="22"/>
+        <v>266.5</v>
+      </c>
+      <c r="R47" s="30">
+        <f t="shared" si="23"/>
+        <v>159.5</v>
+      </c>
+      <c r="S47" s="30">
+        <f t="shared" si="24"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="30">
+        <f>4*2+8*3+22*4+30*8+4*4+22*6</f>
+        <v>508</v>
+      </c>
+      <c r="E48" s="30">
+        <f>D48/90</f>
+        <v>5.64444444444444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="30">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+      <c r="E49" s="30">
+        <f>D49/5</f>
+        <v>1.6</v>
+      </c>
+      <c r="O49" s="30">
+        <f>ROUND(O38/100,0)</f>
+        <v>18</v>
+      </c>
+      <c r="P49" s="30">
+        <f>ROUND(P38/100,0)</f>
+        <v>21</v>
+      </c>
+      <c r="Q49" s="30">
+        <f>ROUND(Q38/100,0)</f>
+        <v>3</v>
+      </c>
+      <c r="R49" s="30">
+        <f>ROUND(R38/100,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S49" s="30">
+        <f>ROUND(S38/100,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="30">
+        <f>2*6+4</f>
+        <v>16</v>
+      </c>
+      <c r="E50" s="30">
+        <f>D50/7</f>
+        <v>2.28571428571429</v>
+      </c>
+      <c r="O50" s="30">
+        <f t="shared" ref="O50:O58" si="25">ROUND(O39/100,0)</f>
+        <v>13</v>
+      </c>
+      <c r="P50" s="30">
+        <f t="shared" ref="P50:P58" si="26">ROUND(P39/100,0)</f>
+        <v>6</v>
+      </c>
+      <c r="Q50" s="30">
+        <f t="shared" ref="Q50:Q58" si="27">ROUND(Q39/100,0)</f>
+        <v>9</v>
+      </c>
+      <c r="R50" s="30">
+        <f t="shared" ref="R50:R58" si="28">ROUND(R39/100,0)</f>
+        <v>11</v>
+      </c>
+      <c r="S50" s="30">
+        <f t="shared" ref="S50:S58" si="29">ROUND(S39/100,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="15:19">
+      <c r="O51" s="30">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="P51" s="30">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="Q51" s="30">
+        <f t="shared" si="27"/>
+        <v>56</v>
+      </c>
+      <c r="R51" s="30">
+        <f t="shared" si="28"/>
+        <v>22</v>
+      </c>
+      <c r="S51" s="30">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="15:19">
+      <c r="O52" s="30">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="P52" s="30">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="Q52" s="30">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="R52" s="30">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="S52" s="30">
+        <f t="shared" si="29"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
+      <c r="B53" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="30">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="P53" s="30">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="Q53" s="30">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="R53" s="30">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="S53" s="30">
+        <f t="shared" si="29"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="30">
+        <v>17</v>
+      </c>
+      <c r="D54" s="30">
+        <v>90</v>
+      </c>
+      <c r="O54" s="30">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="P54" s="30">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="Q54" s="30">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="R54" s="30">
+        <f t="shared" si="28"/>
+        <v>12</v>
+      </c>
+      <c r="S54" s="30">
+        <f t="shared" si="29"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="30">
+        <v>90</v>
+      </c>
+      <c r="O55" s="30">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="P55" s="30">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="Q55" s="30">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="R55" s="30">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="S55" s="30">
+        <f t="shared" si="29"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="30">
+        <v>90</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" s="30">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="P56" s="30">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="Q56" s="30">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="R56" s="30">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="S56" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" s="30">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="P57" s="30">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="Q57" s="30">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="R57" s="30">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="S57" s="30">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="10" customHeight="1" spans="1:19">
+      <c r="A58" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="30">
+        <v>9</v>
+      </c>
+      <c r="O58" s="30">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="P58" s="30">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="Q58" s="30">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="R58" s="30">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="S58" s="30">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="30">
+        <v>5</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="30">
+        <v>7</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="N2:W11">
+    <sortCondition ref="N2" descending="1"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A25:A34"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:K11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:K11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:K22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:W34">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1114,7 +3980,7 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="27">
         <v>4</v>
       </c>
       <c r="G7">
@@ -1289,7 +4155,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1490,28 +4356,28 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="3">
-        <f>(B4+C5+E5+F4+F2+E1+C1+B2)/2</f>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:D40" si="4">(B4+C5+E5+F4+F2+E1+C1+B2)/2</f>
         <v>6</v>
       </c>
-      <c r="E31" s="3">
-        <f>(C4+D5+F5+G4+G2+F1+D1+C2)/2</f>
+      <c r="E31" s="5">
+        <f t="shared" ref="E31:E40" si="5">(C4+D5+F5+G4+G2+F1+D1+C2)/2</f>
         <v>8.5</v>
       </c>
-      <c r="F31" s="3">
-        <f>(D4+E5+G5+H4+H2+G1+E1+D2)/2</f>
+      <c r="F31" s="5">
+        <f t="shared" ref="F31:F40" si="6">(D4+E5+G5+H4+H2+G1+E1+D2)/2</f>
         <v>12</v>
       </c>
-      <c r="G31" s="3">
-        <f>(E4+F5+H5+I4+I2+H1+F1+E2)/2</f>
+      <c r="G31" s="5">
+        <f t="shared" ref="G31:G40" si="7">(E4+F5+H5+I4+I2+H1+F1+E2)/2</f>
         <v>13.5</v>
       </c>
-      <c r="H31" s="3">
-        <f>(F4+G5+I5+J4+J2+I1+G1+F2)/2</f>
+      <c r="H31" s="5">
+        <f t="shared" ref="H31:H40" si="8">(F4+G5+I5+J4+J2+I1+G1+F2)/2</f>
         <v>14</v>
       </c>
     </row>
@@ -1519,24 +4385,24 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="3">
-        <f>(B5+C6+E6+F5+F3+E2+C2+B3)/2</f>
+      <c r="D32" s="5">
+        <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
-      <c r="E32" s="3">
-        <f>(C5+D6+F6+G5+G3+F2+D2+C3)/2</f>
+      <c r="E32" s="5">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="F32" s="3">
-        <f>(D5+E6+G6+H5+H3+G2+E2+D3)/2</f>
+      <c r="F32" s="5">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G32" s="3">
-        <f>(E5+F6+H6+I5+I3+H2+F2+E3)/2</f>
+      <c r="G32" s="5">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="H32" s="3">
-        <f>(F5+G6+I6+J5+J3+I2+G2+F3)/2</f>
+      <c r="H32" s="5">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
@@ -1544,24 +4410,24 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="3">
-        <f>(B6+C7+E7+F6+F4+E3+C3+B4)/2</f>
+      <c r="D33" s="5">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E33" s="3">
-        <f>(C6+D7+F7+G6+G4+F3+D3+C4)/2</f>
+      <c r="E33" s="5">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F33" s="3">
-        <f>(D6+E7+G7+H6+H4+G3+E3+D4)/2</f>
+      <c r="F33" s="5">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="G33" s="3">
-        <f>(E6+F7+H7+I6+I4+H3+F3+E4)/2</f>
+      <c r="G33" s="5">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="H33" s="3">
-        <f>(F6+G7+I7+J6+J4+I3+G3+F4)/2</f>
+      <c r="H33" s="5">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -1569,24 +4435,24 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="3">
-        <f>(B7+C8+E8+F7+F5+E4+C4+B5)/2</f>
+      <c r="D34" s="5">
+        <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
-      <c r="E34" s="3">
-        <f>(C7+D8+F8+G7+G5+F4+D4+C5)/2</f>
+      <c r="E34" s="5">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F34" s="3">
-        <f>(D7+E8+G8+H7+H5+G4+E4+D5)/2</f>
+      <c r="F34" s="5">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="G34" s="3">
-        <f>(E7+F8+H8+I7+I5+H4+F4+E5)/2</f>
+      <c r="G34" s="5">
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="H34" s="3">
-        <f>(F7+G8+I8+J7+J5+I4+G4+F5)/2</f>
+      <c r="H34" s="5">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
@@ -1594,24 +4460,24 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="3">
-        <f>(B8+C9+E9+F8+F6+E5+C5+B6)/2</f>
+      <c r="D35" s="5">
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="E35" s="3">
-        <f>(C8+D9+F9+G8+G6+F5+D5+C6)/2</f>
+      <c r="E35" s="5">
+        <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
-      <c r="F35" s="3">
-        <f>(D8+E9+G9+H8+H6+G5+E5+D6)/2</f>
+      <c r="F35" s="5">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G35" s="3">
-        <f>(E8+F9+H9+I8+I6+H5+F5+E6)/2</f>
+      <c r="G35" s="5">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="H35" s="3">
-        <f>(F8+G9+I9+J8+J6+I5+G5+F6)/2</f>
+      <c r="H35" s="5">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
@@ -1619,24 +4485,24 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="3">
-        <f>(B9+C10+E10+F9+F7+E6+C6+B7)/2</f>
+      <c r="D36" s="5">
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="E36" s="3">
-        <f>(C9+D10+F10+G9+G7+F6+D6+C7)/2</f>
+      <c r="E36" s="5">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F36" s="3">
-        <f>(D9+E10+G10+H9+H7+G6+E6+D7)/2</f>
+      <c r="F36" s="5">
+        <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
-      <c r="G36" s="3">
-        <f>(E9+F10+H10+I9+I7+H6+F6+E7)/2</f>
+      <c r="G36" s="5">
+        <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="H36" s="3">
-        <f>(F9+G10+I10+J9+J7+I6+G6+F7)/2</f>
+      <c r="H36" s="5">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -1644,24 +4510,24 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="3">
-        <f>(B10+C11+E11+F10+F8+E7+C7+B8)/2</f>
+      <c r="D37" s="5">
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="E37" s="3">
-        <f>(C10+D11+F11+G10+G8+F7+D7+C8)/2</f>
+      <c r="E37" s="5">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F37" s="3">
-        <f>(D10+E11+G11+H10+H8+G7+E7+D8)/2</f>
+      <c r="F37" s="5">
+        <f t="shared" si="6"/>
         <v>14.5</v>
       </c>
-      <c r="G37" s="3">
-        <f>(E10+F11+H11+I10+I8+H7+F7+E8)/2</f>
+      <c r="G37" s="5">
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="H37" s="3">
-        <f>(F10+G11+I11+J10+J8+I7+G7+F8)/2</f>
+      <c r="H37" s="5">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
@@ -1669,24 +4535,24 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="3">
-        <f>(B11+C12+E12+F11+F9+E8+C8+B9)/2</f>
+      <c r="D38" s="5">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E38" s="3">
-        <f>(C11+D12+F12+G11+G9+F8+D8+C9)/2</f>
+      <c r="E38" s="5">
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
-      <c r="F38" s="3">
-        <f>(D11+E12+G12+H11+H9+G8+E8+D9)/2</f>
+      <c r="F38" s="5">
+        <f t="shared" si="6"/>
         <v>13.5</v>
       </c>
-      <c r="G38" s="3">
-        <f>(E11+F12+H12+I11+I9+H8+F8+E9)/2</f>
+      <c r="G38" s="5">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="H38" s="3">
-        <f>(F11+G12+I12+J11+J9+I8+G8+F9)/2</f>
+      <c r="H38" s="5">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
@@ -1694,24 +4560,24 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="3">
-        <f>(B12+C13+E13+F12+F10+E9+C9+B10)/2</f>
+      <c r="D39" s="5">
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="E39" s="3">
-        <f>(C12+D13+F13+G12+G10+F9+D9+C10)/2</f>
+      <c r="E39" s="5">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F39" s="3">
-        <f>(D12+E13+G13+H12+H10+G9+E9+D10)/2</f>
+      <c r="F39" s="5">
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
-      <c r="G39" s="3">
-        <f>(E12+F13+H13+I12+I10+H9+F9+E10)/2</f>
+      <c r="G39" s="5">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="H39" s="3">
-        <f>(F12+G13+I13+J12+J10+I9+G9+F10)/2</f>
+      <c r="H39" s="5">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -1719,114 +4585,114 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="3">
-        <f>(B13+C14+E14+F13+F11+E10+C10+B11)/2</f>
+      <c r="D40" s="5">
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="E40" s="3">
-        <f>(C13+D14+F14+G13+G11+F10+D10+C11)/2</f>
+      <c r="E40" s="5">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F40" s="3">
-        <f>(D13+E14+G14+H13+H11+G10+E10+D11)/2</f>
+      <c r="F40" s="5">
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="G40" s="3">
-        <f>(E13+F14+H14+I13+I11+H10+F10+E11)/2</f>
+      <c r="G40" s="5">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="H40" s="3">
-        <f>(F13+G14+I14+J13+J11+I10+G10+F11)/2</f>
+      <c r="H40" s="5">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
         <f>D10+H10</f>
         <v>8</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <f>F8+F12</f>
         <v>7</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5">
         <f>F8+F12+J8+J12</f>
         <v>14</v>
       </c>
@@ -1835,28 +4701,28 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
         <f>D10+H10</f>
         <v>8</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -1917,4 +4783,2910 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:L56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7">
+        <v>87</v>
+      </c>
+      <c r="H3" s="8">
+        <v>103</v>
+      </c>
+      <c r="I3" s="23">
+        <f t="shared" ref="I3:I12" si="0">G3</f>
+        <v>87</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J12" si="1">F3</f>
+        <v>39</v>
+      </c>
+      <c r="K3">
+        <f>E3</f>
+        <v>91</v>
+      </c>
+      <c r="L3">
+        <f>D3</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>446</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="2">E4</f>
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="3">D4</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>160</v>
+      </c>
+      <c r="G5" s="10">
+        <v>93</v>
+      </c>
+      <c r="H5" s="11">
+        <v>495</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>147</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <v>111</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7" s="27">
+        <v>180</v>
+      </c>
+      <c r="G7">
+        <v>89</v>
+      </c>
+      <c r="H7">
+        <v>213</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>79</v>
+      </c>
+      <c r="H8">
+        <v>182</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>81</v>
+      </c>
+      <c r="H9">
+        <v>217</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7">
+        <v>26</v>
+      </c>
+      <c r="H10" s="8">
+        <v>71</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12" s="10">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>5</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16">
+        <f t="shared" ref="D16:H16" si="4">D2+E3+C3</f>
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17">
+        <f t="shared" ref="D17:H17" si="5">D3+E4+C4</f>
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>211</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="5"/>
+        <v>563</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18">
+        <f t="shared" ref="D18:H18" si="6">D4+E5+C5</f>
+        <v>125</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>352</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="6"/>
+        <v>731</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="6"/>
+        <v>632</v>
+      </c>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19">
+        <f t="shared" ref="D19:H19" si="7">D5+E6+C6</f>
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>245</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20">
+        <f t="shared" ref="D20:H20" si="8">D6+E7+C7</f>
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>332</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>437</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21">
+        <f t="shared" ref="D21:H21" si="9">D7</f>
+        <v>111</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22">
+        <f t="shared" ref="D22:H22" si="10">D8</f>
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27:H27" si="11">(B4+C5+E5+F4+F2+E1+C1+B2)/2</f>
+        <v>32.5</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="11"/>
+        <v>197.5</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="11"/>
+        <v>332</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="11"/>
+        <v>382</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:H28" si="12">(B5+C6+E6+F5+F3+E2+C2+B3)/2</f>
+        <v>120</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="12"/>
+        <v>122.5</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="12"/>
+        <v>426.5</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="12"/>
+        <v>246</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="12"/>
+        <v>243</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:H29" si="13">(B6+C7+E7+F6+F4+E3+C3+B4)/2</f>
+        <v>125</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="13"/>
+        <v>230.5</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="13"/>
+        <v>533</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="13"/>
+        <v>364.5</v>
+      </c>
+      <c r="H29" s="22">
+        <f t="shared" si="13"/>
+        <v>245</v>
+      </c>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:H30" si="14">(B7+C8+E8+F7+F5+E4+C4+B5)/2</f>
+        <v>208</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="14"/>
+        <v>223</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="14"/>
+        <v>604.5</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="14"/>
+        <v>520</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="14"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:H31" si="15">(B8+C9+E9+F8+F6+E5+C5+B6)/2</f>
+        <v>115.5</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="15"/>
+        <v>316.5</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="15"/>
+        <v>357.5</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="15"/>
+        <v>583.5</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="15"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32:H32" si="16">(B9+C10+E10+F9+F7+E6+C6+B7)/2</f>
+        <v>171</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="16"/>
+        <v>149.5</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="16"/>
+        <v>394</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="16"/>
+        <v>320</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="16"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5">
+        <f t="shared" ref="D33:H33" si="17">(B10+C11+E11+F10+F8+E7+C7+B8)/2</f>
+        <v>116.5</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="17"/>
+        <v>223</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="17"/>
+        <v>289</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="17"/>
+        <v>311</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="17"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5">
+        <f t="shared" ref="D34:H34" si="18">(B11+C12+E12+F11+F9+E8+C8+B9)/2</f>
+        <v>99.5</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="18"/>
+        <v>154.5</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="18"/>
+        <v>266</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="18"/>
+        <v>250</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="18"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5">
+        <f t="shared" ref="D35:H35" si="19">(B12+C13+E13+F12+F10+E9+C9+B10)/2</f>
+        <v>72</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="19"/>
+        <v>115.5</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="19"/>
+        <v>149</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="19"/>
+        <v>208</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="19"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5">
+        <f t="shared" ref="D36:H36" si="20">(B13+C14+E14+F13+F11+E10+C10+B11)/2</f>
+        <v>31.5</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="20"/>
+        <v>45.5</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="20"/>
+        <v>48.5</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="20"/>
+        <v>83</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="20"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <f>D10+H10</f>
+        <v>94</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="5">
+        <f>F8+F12</f>
+        <v>96</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="7">
+        <f>H11</f>
+        <v>18</v>
+      </c>
+      <c r="H44" s="20">
+        <f>F8+F12+J8+J12</f>
+        <v>192</v>
+      </c>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="21"/>
+      <c r="H45">
+        <f>G12+I12+I10+G10</f>
+        <v>80</v>
+      </c>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <f>D10+H10</f>
+        <v>94</v>
+      </c>
+      <c r="G46" s="10">
+        <f>H11</f>
+        <v>18</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A47:A56"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:L56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>114</v>
+      </c>
+      <c r="G3" s="7">
+        <v>145</v>
+      </c>
+      <c r="H3" s="8">
+        <v>382</v>
+      </c>
+      <c r="I3" s="23">
+        <f>G3</f>
+        <v>145</v>
+      </c>
+      <c r="J3">
+        <f>F3</f>
+        <v>114</v>
+      </c>
+      <c r="K3">
+        <f>E3</f>
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <f>D3</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>321</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" ref="I4:I12" si="0">G4</f>
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="1">F4</f>
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="2">E4</f>
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="3">D4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5" s="10">
+        <v>43</v>
+      </c>
+      <c r="H5" s="11">
+        <v>345</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>240</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>199</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7" s="12">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>57</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16">
+        <f t="shared" ref="D16:H16" si="4">D2+E3+C3</f>
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17">
+        <f t="shared" ref="D17:H17" si="5">D3+E4+C4</f>
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="5"/>
+        <v>475</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>418</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18">
+        <f t="shared" ref="D18:H18" si="6">D4+E5+C5</f>
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="6"/>
+        <v>419</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="6"/>
+        <v>407</v>
+      </c>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19">
+        <f t="shared" ref="D19:H19" si="7">D5+E6+C6</f>
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20">
+        <f t="shared" ref="D20:H20" si="8">D6+E7+C7</f>
+        <v>259</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21">
+        <f t="shared" ref="D21:H21" si="9">D7</f>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22">
+        <f t="shared" ref="D22:H22" si="10">D8</f>
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="13">
+        <f t="shared" ref="D27:H27" si="11">(B4+C5+E5+F4+F2+E1+C1+B2)/2</f>
+        <v>13.5</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="11"/>
+        <v>74.5</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="11"/>
+        <v>197.5</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="11"/>
+        <v>212.5</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="13">
+        <f t="shared" ref="D28:H28" si="12">(B5+C6+E6+F5+F3+E2+C2+B3)/2</f>
+        <v>89</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="12"/>
+        <v>235</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="12"/>
+        <v>418</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="12"/>
+        <v>234</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="13">
+        <f t="shared" ref="D29:H29" si="13">(B6+C7+E7+F6+F4+E3+C3+B4)/2</f>
+        <v>45.5</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="13"/>
+        <v>140</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="13"/>
+        <v>487</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="13"/>
+        <v>332.5</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="13">
+        <f t="shared" ref="D30:H30" si="14">(B7+C8+E8+F7+F5+E4+C4+B5)/2</f>
+        <v>72</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="14"/>
+        <v>53.5</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="14"/>
+        <v>288.5</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="14"/>
+        <v>238.5</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="14"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="13">
+        <f t="shared" ref="D31:H31" si="15">(B8+C9+E9+F8+F6+E5+C5+B6)/2</f>
+        <v>42.5</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="15"/>
+        <v>297.5</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="15"/>
+        <v>252</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="15"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="13">
+        <f t="shared" ref="D32:H32" si="16">(B9+C10+E10+F9+F7+E6+C6+B7)/2</f>
+        <v>53</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="16"/>
+        <v>164</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="16"/>
+        <v>96.5</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="16"/>
+        <v>163</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="16"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="13">
+        <f t="shared" ref="D33:H33" si="17">(B10+C11+E11+F10+F8+E7+C7+B8)/2</f>
+        <v>19.5</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="17"/>
+        <v>57</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="17"/>
+        <v>86</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="13">
+        <f t="shared" ref="D34:H34" si="18">(B11+C12+E12+F11+F9+E8+C8+B9)/2</f>
+        <v>21.5</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="18"/>
+        <v>33</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="18"/>
+        <v>50.5</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="18"/>
+        <v>50.5</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="13">
+        <f t="shared" ref="D35:H35" si="19">(B12+C13+E13+F12+F10+E9+C9+B10)/2</f>
+        <v>13</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="13">
+        <f t="shared" ref="D36:H36" si="20">(B13+C14+E14+F13+F11+E10+C10+B11)/2</f>
+        <v>6</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <f>D10+H10</f>
+        <v>10</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="5">
+        <f>F8+F12</f>
+        <v>12</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="7">
+        <f>H11</f>
+        <v>2</v>
+      </c>
+      <c r="H44" s="20">
+        <f>F8+F12+J8+J12</f>
+        <v>24</v>
+      </c>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="21"/>
+      <c r="H45">
+        <f>G12+I12+I10+G10</f>
+        <v>10</v>
+      </c>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <f>D10+H10</f>
+        <v>10</v>
+      </c>
+      <c r="G46" s="10">
+        <f>H11</f>
+        <v>2</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A47:A56"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:J55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I12" si="0">G3</f>
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J12" si="1">F3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16">
+        <f t="shared" ref="D16:H16" si="2">D2+E3+C3</f>
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17">
+        <f t="shared" ref="D17:H17" si="3">D3+E4+C4</f>
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18">
+        <f t="shared" ref="D18:H18" si="4">D4+E5+C5</f>
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19">
+        <f t="shared" ref="D19:H19" si="5">D5+E6+C6</f>
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:H20" si="6">D6+E7+C7</f>
+        <v>6</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21">
+        <f t="shared" ref="D21:H21" si="7">D7</f>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22">
+        <f t="shared" ref="D22:H22" si="8">D8</f>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5">
+        <f>B4+C5+E5+F4+F2+E1+C1+B2</f>
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <f>C4+D5+F5+G4+G2+F1+D1+C2</f>
+        <v>17</v>
+      </c>
+      <c r="F26" s="5">
+        <f>D4+E5+G5+H4+H2+G1+E1+D2</f>
+        <v>24</v>
+      </c>
+      <c r="G26" s="5">
+        <f>E4+F5+H5+I4+I2+H1+F1+E2</f>
+        <v>27</v>
+      </c>
+      <c r="H26" s="5">
+        <f>F4+G5+I5+J4+J2+I1+G1+F2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27:D35" si="9">B5+C6+E6+F5+F3+E2+C2+B3</f>
+        <v>17</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:E35" si="10">C5+D6+F6+G5+G3+F2+D2+C3</f>
+        <v>24</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:F35" si="11">D5+E6+G6+H5+H3+G2+E2+D3</f>
+        <v>44</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" ref="G27:G35" si="12">E5+F6+H6+I5+I3+H2+F2+E3</f>
+        <v>38</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" ref="H27:H35" si="13">F5+G6+I6+J5+J3+I2+G2+F3</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="13"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="6">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <f>D10+H10</f>
+        <v>7</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="5">
+        <f>F8+F12</f>
+        <v>8</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43">
+        <f>H11</f>
+        <v>6</v>
+      </c>
+      <c r="H43" s="5">
+        <f>F8+F12+J8+J12</f>
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <f>H11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44">
+        <f>G12+I12+I10+G10</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <f>D10+H10</f>
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <f>H11</f>
+        <v>6</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45">
+        <f>H11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="A46:A55"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/SquareWeight.xlsx
+++ b/SquareWeight.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="movepiece" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>17+</t>
   </si>
   <si>
-    <t>取决于位置和絆马腿。满格8，加权5.6</t>
+    <t>取决于位置和絆马腿。满格8，加权6.9</t>
   </si>
   <si>
     <t>取决于位置和絆马腿，满格8,实际在3.5左右。</t>
@@ -158,12 +158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -181,9 +181,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,8 +202,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +251,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,31 +272,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,11 +287,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,45 +313,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,66 +333,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,7 +345,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,43 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,49 +489,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,21 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -637,11 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +651,26 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,17 +704,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,149 +712,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,16 +864,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -888,28 +882,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -919,9 +907,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -954,7 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1281,2505 +1266,2500 @@
   <sheetPr/>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="46.375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="30" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="30" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="30"/>
-    <col min="6" max="6" width="9.375" style="30"/>
-    <col min="7" max="7" width="9" style="30"/>
-    <col min="8" max="8" width="12.625" style="30"/>
-    <col min="9" max="9" width="9" style="30"/>
-    <col min="10" max="10" width="12.625" style="30"/>
-    <col min="11" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="23.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="25"/>
+    <col min="6" max="6" width="9.375" style="25"/>
+    <col min="7" max="7" width="9" style="25"/>
+    <col min="8" max="8" width="12.625" style="25"/>
+    <col min="9" max="9" width="9" style="25"/>
+    <col min="10" max="10" width="12.625" style="25"/>
+    <col min="11" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11">
-      <c r="C1" s="30">
+      <c r="C1" s="25">
         <v>1</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="25">
         <v>2</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="25">
         <v>3</v>
       </c>
-      <c r="F1" s="30">
+      <c r="F1" s="25">
         <v>4</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="25">
         <v>5</v>
       </c>
-      <c r="H1" s="30">
+      <c r="H1" s="25">
         <v>6</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="25">
         <v>7</v>
       </c>
-      <c r="J1" s="30">
+      <c r="J1" s="25">
         <v>8</v>
       </c>
-      <c r="K1" s="30">
+      <c r="K1" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="25">
         <v>1</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="25">
         <v>690</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="25">
         <v>546</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="25">
         <v>247</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="25">
         <v>215</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="25">
         <v>42</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="25">
         <v>111</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="25">
         <v>250</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="25">
         <v>626</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="25">
         <v>413</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="29">
         <v>10</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="29">
         <v>894</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="29">
         <v>1854</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="29">
         <v>221</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2" s="29">
         <v>369</v>
       </c>
-      <c r="S2" s="34">
+      <c r="S2" s="29">
         <v>68</v>
       </c>
-      <c r="T2" s="34">
+      <c r="T2" s="29">
         <v>637</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="29">
         <v>292</v>
       </c>
-      <c r="V2" s="34">
+      <c r="V2" s="29">
         <v>1562</v>
       </c>
-      <c r="W2" s="34">
+      <c r="W2" s="29">
         <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="31"/>
-      <c r="B3" s="30">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25">
         <v>2</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="25">
         <v>210</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="25">
         <v>303</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="25">
         <v>597</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="25">
         <v>382</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="25">
         <v>48</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="25">
         <v>320</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="25">
         <v>343</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="25">
         <v>429</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="25">
         <v>188</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="29">
         <v>9</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="29">
         <v>662</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="29">
         <v>498</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="29">
         <v>944</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="29">
         <v>1008</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="29">
         <v>526</v>
       </c>
-      <c r="T3" s="34">
+      <c r="T3" s="29">
         <v>1194</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="29">
         <v>657</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3" s="29">
         <v>536</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="29">
         <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="31"/>
-      <c r="B4" s="30">
+      <c r="A4" s="26"/>
+      <c r="B4" s="25">
         <v>3</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="25">
         <v>157</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="25">
         <v>651</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="25">
         <v>629</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="25">
         <v>234</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="25">
         <v>291</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="25">
         <v>184</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="25">
         <v>448</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="25">
         <v>289</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="25">
         <v>153</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="29">
         <v>8</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="29">
         <v>4232</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="29">
         <v>1295</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="29">
         <v>5288</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="29">
         <v>2393</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="29">
         <v>3910</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="29">
         <v>1464</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="29">
         <v>6374</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="29">
         <v>1011</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4" s="29">
         <v>1360</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="31"/>
-      <c r="B5" s="30">
+      <c r="A5" s="26"/>
+      <c r="B5" s="25">
         <v>4</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="25">
         <v>782</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
         <v>1498</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <v>1906</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="25">
         <v>1495</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="25">
         <v>1360</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="25">
         <v>1536</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="25">
         <v>1718</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="25">
         <v>1401</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="25">
         <v>742</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="29">
         <v>7</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="29">
         <v>182</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="29">
         <v>736</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="29">
         <v>558</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="29">
         <v>694</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="29">
         <v>1324</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="29">
         <v>812</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="29">
         <v>446</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5" s="29">
         <v>532</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="29">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30">
+      <c r="A6" s="26"/>
+      <c r="B6" s="25">
         <v>5</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="25">
         <v>411</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="25">
         <v>715</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="25">
         <v>192</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <v>1115</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="25">
         <v>1210</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="25">
         <v>1169</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="25">
         <v>236</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="25">
         <v>377</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="25">
         <v>308</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="29">
         <v>6</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="29">
         <v>446</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="29">
         <v>1846</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="29">
         <v>1110</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="29">
         <v>1932</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="29">
         <v>1081</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="29">
         <v>2044</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="29">
         <v>1362</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="29">
         <v>1560</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="29">
         <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30">
+      <c r="A7" s="26"/>
+      <c r="B7" s="25">
         <v>6</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="25">
         <v>446</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="25">
         <v>1846</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="25">
         <v>1110</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <v>1932</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="25">
         <v>1081</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="25">
         <v>2044</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="25">
         <v>1362</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="25">
         <v>1560</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="25">
         <v>291</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="29">
         <v>5</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="29">
         <v>411</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="29">
         <v>715</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="29">
         <v>192</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="29">
         <v>1115</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="29">
         <v>1210</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="29">
         <v>1169</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="29">
         <v>236</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="29">
         <v>377</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="29">
         <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30">
+      <c r="A8" s="26"/>
+      <c r="B8" s="25">
         <v>7</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="25">
         <v>182</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="25">
         <v>736</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <v>558</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="25">
         <v>694</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="25">
         <v>1324</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="25">
         <v>812</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="25">
         <v>446</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="25">
         <v>532</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="25">
         <v>234</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="29">
         <v>4</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="29">
         <v>782</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="29">
         <v>1498</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="29">
         <v>1906</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="29">
         <v>1495</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="29">
         <v>1360</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="29">
         <v>1536</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="29">
         <v>1718</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="29">
         <v>1401</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="29">
         <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25">
         <v>8</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="25">
         <v>4232</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="25">
         <v>1295</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="25">
         <v>5288</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="25">
         <v>2393</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="25">
         <v>3910</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="25">
         <v>1464</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="25">
         <v>6374</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="25">
         <v>1011</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="25">
         <v>1360</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="29">
         <v>3</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="29">
         <v>157</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="29">
         <v>651</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="29">
         <v>629</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="29">
         <v>234</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="29">
         <v>291</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="29">
         <v>184</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="29">
         <v>448</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="29">
         <v>289</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="29">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30">
+      <c r="A10" s="26"/>
+      <c r="B10" s="25">
         <v>9</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="25">
         <v>662</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="25">
         <v>498</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="25">
         <v>944</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="25">
         <v>1008</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="25">
         <v>526</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="25">
         <v>1194</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="25">
         <v>657</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="25">
         <v>536</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="25">
         <v>672</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="29">
         <v>2</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="29">
         <v>210</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="29">
         <v>303</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="29">
         <v>597</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="29">
         <v>382</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="29">
         <v>48</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="29">
         <v>320</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="29">
         <v>343</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="29">
         <v>429</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="29">
         <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25">
         <v>10</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="25">
         <v>894</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="25">
         <v>1854</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="25">
         <v>221</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="25">
         <v>369</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="25">
         <v>68</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="25">
         <v>637</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="25">
         <v>292</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="25">
         <v>1562</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="25">
         <v>612</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="29">
         <v>1</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="29">
         <v>690</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="29">
         <v>546</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="29">
         <v>247</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="29">
         <v>215</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="29">
         <v>42</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="29">
         <v>111</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="29">
         <v>250</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="29">
         <v>626</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="29">
         <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="25">
         <v>1</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="25">
         <v>1190</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="25">
         <v>2363</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="25">
         <v>303</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="25">
         <v>629</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="25">
         <v>79</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="25">
         <v>512</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="25">
         <v>472</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="25">
         <v>2925</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="25">
         <v>973</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="31"/>
-      <c r="B14" s="30">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25">
         <v>2</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="25">
         <v>592</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="25">
         <v>711</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="25">
         <v>815</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="25">
         <v>1263</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="25">
         <v>359</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="25">
         <v>994</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="25">
         <v>944</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="25">
         <v>421</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="25">
         <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25">
         <v>3</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="25">
         <v>1982</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="25">
         <v>2291</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="25">
         <v>5911</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="25">
         <v>2008</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="25">
         <v>1096</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="25">
         <v>2236</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="25">
         <v>6213</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="25">
         <v>1881</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="25">
         <v>2208</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25">
         <v>4</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="25">
         <v>418</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="25">
         <v>911</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="25">
         <v>638</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="25">
         <v>832</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="25">
         <v>1363</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="25">
         <v>690</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="25">
         <v>523</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="25">
         <v>749</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="25">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30">
+      <c r="A17" s="26"/>
+      <c r="B17" s="25">
         <v>5</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="25">
         <v>216</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="25">
         <v>1971</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="25">
         <v>1339</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="25">
         <v>1205</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="25">
         <v>1111</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="25">
         <v>1558</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="25">
         <v>1110</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="25">
         <v>1912</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="25">
         <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="31"/>
-      <c r="B18" s="30">
+      <c r="A18" s="26"/>
+      <c r="B18" s="25">
         <v>6</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="25">
         <v>479</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="25">
         <v>535</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="25">
         <v>354</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="25">
         <v>1209</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="25">
         <v>1228</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="25">
         <v>906</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="25">
         <v>321</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="25">
         <v>587</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="25">
         <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30">
+      <c r="A19" s="26"/>
+      <c r="B19" s="25">
         <v>7</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="25">
         <v>1125</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="25">
         <v>1261</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="25">
         <v>1137</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="25">
         <v>1175</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="25">
         <v>1415</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="25">
         <v>1220</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="25">
         <v>1819</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="25">
         <v>1281</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="25">
         <v>908</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30">
+      <c r="A20" s="26"/>
+      <c r="B20" s="25">
         <v>8</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="25">
         <v>150</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="25">
         <v>390</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="25">
         <v>499</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="25">
         <v>213</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="25">
         <v>184</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="25">
         <v>183</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="25">
         <v>396</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="25">
         <v>434</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="25">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30">
+      <c r="A21" s="26"/>
+      <c r="B21" s="25">
         <v>9</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="25">
         <v>210</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="25">
         <v>362</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="25">
         <v>456</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="25">
         <v>415</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="25">
         <v>71</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="25">
         <v>365</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="25">
         <v>386</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="25">
         <v>433</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="25">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30">
+      <c r="A22" s="26"/>
+      <c r="B22" s="25">
         <v>10</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="25">
         <v>479</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="25">
         <v>462</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="25">
         <v>286</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="25">
         <v>104</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="25">
         <v>30</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="25">
         <v>77</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="25">
         <v>252</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="25">
         <v>552</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="25">
         <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="25">
         <v>1</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="25">
         <f t="shared" ref="C25:K25" si="0">C2+C13</f>
         <v>1880</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="25">
         <f t="shared" si="0"/>
         <v>2909</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="25">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="27">
         <f t="shared" si="0"/>
         <v>844</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="27">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="27">
         <f t="shared" si="0"/>
         <v>623</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="25">
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="25">
         <f t="shared" si="0"/>
         <v>3551</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="25">
         <f t="shared" si="0"/>
         <v>1386</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="25">
         <f t="shared" ref="O25:W25" si="1">C13+O2</f>
         <v>2084</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="25">
         <f t="shared" si="1"/>
         <v>4217</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="25">
         <f t="shared" si="1"/>
         <v>524</v>
       </c>
-      <c r="R25" s="30">
+      <c r="R25" s="25">
         <f t="shared" si="1"/>
         <v>998</v>
       </c>
-      <c r="S25" s="30">
+      <c r="S25" s="25">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="T25" s="30">
+      <c r="T25" s="25">
         <f t="shared" si="1"/>
         <v>1149</v>
       </c>
-      <c r="U25" s="30">
+      <c r="U25" s="25">
         <f t="shared" si="1"/>
         <v>764</v>
       </c>
-      <c r="V25" s="30">
+      <c r="V25" s="25">
         <f t="shared" si="1"/>
         <v>4487</v>
       </c>
-      <c r="W25" s="30">
+      <c r="W25" s="25">
         <f t="shared" si="1"/>
         <v>1585</v>
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25">
         <v>2</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="25">
         <f t="shared" ref="C26:K26" si="2">C3+C14</f>
         <v>802</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="25">
         <f t="shared" si="2"/>
         <v>1014</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="25">
         <f t="shared" si="2"/>
         <v>1412</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="27">
         <f t="shared" si="2"/>
         <v>1645</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="27">
         <f t="shared" si="2"/>
         <v>407</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="27">
         <f t="shared" si="2"/>
         <v>1314</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="25">
         <f t="shared" si="2"/>
         <v>1287</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="25">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="25">
         <f t="shared" si="2"/>
         <v>908</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="25">
         <f t="shared" ref="O26:W26" si="3">C14+O3</f>
         <v>1254</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="25">
         <f t="shared" si="3"/>
         <v>1209</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="25">
         <f t="shared" si="3"/>
         <v>1759</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="25">
         <f t="shared" si="3"/>
         <v>2271</v>
       </c>
-      <c r="S26" s="30">
+      <c r="S26" s="25">
         <f t="shared" si="3"/>
         <v>885</v>
       </c>
-      <c r="T26" s="30">
+      <c r="T26" s="25">
         <f t="shared" si="3"/>
         <v>2188</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="25">
         <f t="shared" si="3"/>
         <v>1601</v>
       </c>
-      <c r="V26" s="30">
+      <c r="V26" s="25">
         <f t="shared" si="3"/>
         <v>957</v>
       </c>
-      <c r="W26" s="30">
+      <c r="W26" s="25">
         <f t="shared" si="3"/>
         <v>1392</v>
       </c>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30">
+      <c r="A27" s="26"/>
+      <c r="B27" s="25">
         <v>3</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="25">
         <f t="shared" ref="C27:K27" si="4">C4+C15</f>
         <v>2139</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="25">
         <f t="shared" si="4"/>
         <v>2942</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="25">
         <f t="shared" si="4"/>
         <v>6540</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="27">
         <f t="shared" si="4"/>
         <v>2242</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="27">
         <f t="shared" si="4"/>
         <v>1387</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="27">
         <f t="shared" si="4"/>
         <v>2420</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="25">
         <f t="shared" si="4"/>
         <v>6661</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="25">
         <f t="shared" si="4"/>
         <v>2170</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="25">
         <f t="shared" si="4"/>
         <v>2361</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="25">
         <f t="shared" ref="O27:W27" si="5">C15+O4</f>
         <v>6214</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="25">
         <f t="shared" si="5"/>
         <v>3586</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="25">
         <f t="shared" si="5"/>
         <v>11199</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="25">
         <f t="shared" si="5"/>
         <v>4401</v>
       </c>
-      <c r="S27" s="30">
+      <c r="S27" s="25">
         <f t="shared" si="5"/>
         <v>5006</v>
       </c>
-      <c r="T27" s="30">
+      <c r="T27" s="25">
         <f t="shared" si="5"/>
         <v>3700</v>
       </c>
-      <c r="U27" s="30">
+      <c r="U27" s="25">
         <f t="shared" si="5"/>
         <v>12587</v>
       </c>
-      <c r="V27" s="30">
+      <c r="V27" s="25">
         <f t="shared" si="5"/>
         <v>2892</v>
       </c>
-      <c r="W27" s="30">
+      <c r="W27" s="25">
         <f t="shared" si="5"/>
         <v>3568</v>
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30">
+      <c r="A28" s="26"/>
+      <c r="B28" s="25">
         <v>4</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="25">
         <f t="shared" ref="C28:K28" si="6">C5+C16</f>
         <v>1200</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="25">
         <f t="shared" si="6"/>
         <v>2409</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="25">
         <f t="shared" si="6"/>
         <v>2544</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="25">
         <f t="shared" si="6"/>
         <v>2327</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="25">
         <f t="shared" si="6"/>
         <v>2723</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="25">
         <f t="shared" si="6"/>
         <v>2226</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="25">
         <f t="shared" si="6"/>
         <v>2241</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="25">
         <f t="shared" si="6"/>
         <v>2150</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="25">
         <f t="shared" si="6"/>
         <v>966</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="25">
         <f t="shared" ref="O28:W28" si="7">C16+O5</f>
         <v>600</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="25">
         <f t="shared" si="7"/>
         <v>1647</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="25">
         <f t="shared" si="7"/>
         <v>1196</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="25">
         <f t="shared" si="7"/>
         <v>1526</v>
       </c>
-      <c r="S28" s="30">
+      <c r="S28" s="25">
         <f t="shared" si="7"/>
         <v>2687</v>
       </c>
-      <c r="T28" s="30">
+      <c r="T28" s="25">
         <f t="shared" si="7"/>
         <v>1502</v>
       </c>
-      <c r="U28" s="30">
+      <c r="U28" s="25">
         <f t="shared" si="7"/>
         <v>969</v>
       </c>
-      <c r="V28" s="30">
+      <c r="V28" s="25">
         <f t="shared" si="7"/>
         <v>1281</v>
       </c>
-      <c r="W28" s="30">
+      <c r="W28" s="25">
         <f t="shared" si="7"/>
         <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="31"/>
-      <c r="B29" s="30">
+      <c r="A29" s="26"/>
+      <c r="B29" s="25">
         <v>5</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="25">
         <f t="shared" ref="C29:K29" si="8">C6+C17</f>
         <v>627</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="25">
         <f t="shared" si="8"/>
         <v>2686</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="25">
         <f t="shared" si="8"/>
         <v>1531</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="25">
         <f t="shared" si="8"/>
         <v>2320</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="25">
         <f t="shared" si="8"/>
         <v>2321</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="25">
         <f t="shared" si="8"/>
         <v>2727</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="25">
         <f t="shared" si="8"/>
         <v>1346</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="25">
         <f t="shared" si="8"/>
         <v>2289</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="25">
         <f t="shared" si="8"/>
         <v>598</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="25">
         <f t="shared" ref="O29:W29" si="9">C17+O6</f>
         <v>662</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="25">
         <f t="shared" si="9"/>
         <v>3817</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="25">
         <f t="shared" si="9"/>
         <v>2449</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="25">
         <f t="shared" si="9"/>
         <v>3137</v>
       </c>
-      <c r="S29" s="30">
+      <c r="S29" s="25">
         <f t="shared" si="9"/>
         <v>2192</v>
       </c>
-      <c r="T29" s="30">
+      <c r="T29" s="25">
         <f t="shared" si="9"/>
         <v>3602</v>
       </c>
-      <c r="U29" s="30">
+      <c r="U29" s="25">
         <f t="shared" si="9"/>
         <v>2472</v>
       </c>
-      <c r="V29" s="30">
+      <c r="V29" s="25">
         <f t="shared" si="9"/>
         <v>3472</v>
       </c>
-      <c r="W29" s="30">
+      <c r="W29" s="25">
         <f t="shared" si="9"/>
         <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="31"/>
-      <c r="B30" s="30">
+      <c r="A30" s="26"/>
+      <c r="B30" s="25">
         <v>6</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="25">
         <f t="shared" ref="C30:K30" si="10">C7+C18</f>
         <v>925</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="25">
         <f t="shared" si="10"/>
         <v>2381</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="25">
         <f t="shared" si="10"/>
         <v>1464</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="25">
         <f t="shared" si="10"/>
         <v>3141</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="25">
         <f t="shared" si="10"/>
         <v>2309</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="25">
         <f t="shared" si="10"/>
         <v>2950</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="25">
         <f t="shared" si="10"/>
         <v>1683</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="25">
         <f t="shared" si="10"/>
         <v>2147</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="25">
         <f t="shared" si="10"/>
         <v>670</v>
       </c>
-      <c r="O30" s="30">
+      <c r="O30" s="25">
         <f t="shared" ref="O30:W30" si="11">C18+O7</f>
         <v>890</v>
       </c>
-      <c r="P30" s="30">
+      <c r="P30" s="25">
         <f t="shared" si="11"/>
         <v>1250</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="Q30" s="25">
         <f t="shared" si="11"/>
         <v>546</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="25">
         <f t="shared" si="11"/>
         <v>2324</v>
       </c>
-      <c r="S30" s="30">
+      <c r="S30" s="25">
         <f t="shared" si="11"/>
         <v>2438</v>
       </c>
-      <c r="T30" s="30">
+      <c r="T30" s="25">
         <f t="shared" si="11"/>
         <v>2075</v>
       </c>
-      <c r="U30" s="30">
+      <c r="U30" s="25">
         <f t="shared" si="11"/>
         <v>557</v>
       </c>
-      <c r="V30" s="30">
+      <c r="V30" s="25">
         <f t="shared" si="11"/>
         <v>964</v>
       </c>
-      <c r="W30" s="30">
+      <c r="W30" s="25">
         <f t="shared" si="11"/>
         <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30">
+      <c r="A31" s="26"/>
+      <c r="B31" s="25">
         <v>7</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="25">
         <f t="shared" ref="C31:K31" si="12">C8+C19</f>
         <v>1307</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="25">
         <f t="shared" si="12"/>
         <v>1997</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="25">
         <f t="shared" si="12"/>
         <v>1695</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="25">
         <f t="shared" si="12"/>
         <v>1869</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="25">
         <f t="shared" si="12"/>
         <v>2739</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="25">
         <f t="shared" si="12"/>
         <v>2032</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="25">
         <f t="shared" si="12"/>
         <v>2265</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="25">
         <f t="shared" si="12"/>
         <v>1813</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="25">
         <f t="shared" si="12"/>
         <v>1142</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="25">
         <f t="shared" ref="O31:W31" si="13">C19+O8</f>
         <v>1907</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="25">
         <f t="shared" si="13"/>
         <v>2759</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="25">
         <f t="shared" si="13"/>
         <v>3043</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="25">
         <f t="shared" si="13"/>
         <v>2670</v>
       </c>
-      <c r="S31" s="30">
+      <c r="S31" s="25">
         <f t="shared" si="13"/>
         <v>2775</v>
       </c>
-      <c r="T31" s="30">
+      <c r="T31" s="25">
         <f t="shared" si="13"/>
         <v>2756</v>
       </c>
-      <c r="U31" s="30">
+      <c r="U31" s="25">
         <f t="shared" si="13"/>
         <v>3537</v>
       </c>
-      <c r="V31" s="30">
+      <c r="V31" s="25">
         <f t="shared" si="13"/>
         <v>2682</v>
       </c>
-      <c r="W31" s="30">
+      <c r="W31" s="25">
         <f t="shared" si="13"/>
         <v>1650</v>
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="31"/>
-      <c r="B32" s="30">
+      <c r="A32" s="26"/>
+      <c r="B32" s="25">
         <v>8</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="25">
         <f t="shared" ref="C32:K32" si="14">C9+C20</f>
         <v>4382</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="25">
         <f t="shared" si="14"/>
         <v>1685</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="25">
         <f t="shared" si="14"/>
         <v>5787</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="27">
         <f t="shared" si="14"/>
         <v>2606</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="27">
         <f t="shared" si="14"/>
         <v>4094</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="27">
         <f t="shared" si="14"/>
         <v>1647</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="25">
         <f t="shared" si="14"/>
         <v>6770</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="25">
         <f t="shared" si="14"/>
         <v>1445</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="25">
         <f t="shared" si="14"/>
         <v>1464</v>
       </c>
-      <c r="O32" s="30">
+      <c r="O32" s="25">
         <f t="shared" ref="O32:W32" si="15">C20+O9</f>
         <v>307</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="25">
         <f t="shared" si="15"/>
         <v>1041</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="25">
         <f t="shared" si="15"/>
         <v>1128</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="25">
         <f t="shared" si="15"/>
         <v>447</v>
       </c>
-      <c r="S32" s="30">
+      <c r="S32" s="25">
         <f t="shared" si="15"/>
         <v>475</v>
       </c>
-      <c r="T32" s="30">
+      <c r="T32" s="25">
         <f t="shared" si="15"/>
         <v>367</v>
       </c>
-      <c r="U32" s="30">
+      <c r="U32" s="25">
         <f t="shared" si="15"/>
         <v>844</v>
       </c>
-      <c r="V32" s="30">
+      <c r="V32" s="25">
         <f t="shared" si="15"/>
         <v>723</v>
       </c>
-      <c r="W32" s="30">
+      <c r="W32" s="25">
         <f t="shared" si="15"/>
         <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="31"/>
-      <c r="B33" s="30">
+      <c r="A33" s="26"/>
+      <c r="B33" s="25">
         <v>9</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="25">
         <f t="shared" ref="C33:K33" si="16">C10+C21</f>
         <v>872</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="25">
         <f t="shared" si="16"/>
         <v>860</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="25">
         <f t="shared" si="16"/>
         <v>1400</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="27">
         <f t="shared" si="16"/>
         <v>1423</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="27">
         <f t="shared" si="16"/>
         <v>597</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="27">
         <f t="shared" si="16"/>
         <v>1559</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="25">
         <f t="shared" si="16"/>
         <v>1043</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="25">
         <f t="shared" si="16"/>
         <v>969</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="25">
         <f t="shared" si="16"/>
         <v>849</v>
       </c>
-      <c r="O33" s="30">
+      <c r="O33" s="25">
         <f t="shared" ref="O33:W33" si="17">C21+O10</f>
         <v>420</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="25">
         <f t="shared" si="17"/>
         <v>665</v>
       </c>
-      <c r="Q33" s="30">
+      <c r="Q33" s="25">
         <f t="shared" si="17"/>
         <v>1053</v>
       </c>
-      <c r="R33" s="30">
+      <c r="R33" s="25">
         <f t="shared" si="17"/>
         <v>797</v>
       </c>
-      <c r="S33" s="30">
+      <c r="S33" s="25">
         <f t="shared" si="17"/>
         <v>119</v>
       </c>
-      <c r="T33" s="30">
+      <c r="T33" s="25">
         <f t="shared" si="17"/>
         <v>685</v>
       </c>
-      <c r="U33" s="30">
+      <c r="U33" s="25">
         <f t="shared" si="17"/>
         <v>729</v>
       </c>
-      <c r="V33" s="30">
+      <c r="V33" s="25">
         <f t="shared" si="17"/>
         <v>862</v>
       </c>
-      <c r="W33" s="30">
+      <c r="W33" s="25">
         <f t="shared" si="17"/>
         <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30">
+      <c r="A34" s="26"/>
+      <c r="B34" s="25">
         <v>10</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="25">
         <f t="shared" ref="C34:K34" si="18">C11+C22</f>
         <v>1373</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="25">
         <f t="shared" si="18"/>
         <v>2316</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="25">
         <f t="shared" si="18"/>
         <v>507</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="27">
         <f t="shared" si="18"/>
         <v>473</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="27">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="27">
         <f t="shared" si="18"/>
         <v>714</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="25">
         <f t="shared" si="18"/>
         <v>544</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="25">
         <f t="shared" si="18"/>
         <v>2114</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="25">
         <f t="shared" si="18"/>
         <v>1129</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="25">
         <f t="shared" ref="O34:W34" si="19">C22+O11</f>
         <v>1169</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="25">
         <f t="shared" si="19"/>
         <v>1008</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="25">
         <f t="shared" si="19"/>
         <v>533</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="25">
         <f t="shared" si="19"/>
         <v>319</v>
       </c>
-      <c r="S34" s="30">
+      <c r="S34" s="25">
         <f t="shared" si="19"/>
         <v>72</v>
       </c>
-      <c r="T34" s="30">
+      <c r="T34" s="25">
         <f t="shared" si="19"/>
         <v>188</v>
       </c>
-      <c r="U34" s="30">
+      <c r="U34" s="25">
         <f t="shared" si="19"/>
         <v>502</v>
       </c>
-      <c r="V34" s="30">
+      <c r="V34" s="25">
         <f t="shared" si="19"/>
         <v>1178</v>
       </c>
-      <c r="W34" s="30">
+      <c r="W34" s="25">
         <f t="shared" si="19"/>
         <v>930</v>
       </c>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="25">
         <v>8</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="25">
         <f>COMBIN(89,4)</f>
         <v>2441626</v>
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="33">
-        <f>4/89*5.6/4</f>
-        <v>0.0629213483146067</v>
-      </c>
-      <c r="D38" s="30">
+      <c r="B38" s="28">
+        <f>4/89*E48/4</f>
+        <v>0.0775280898876405</v>
+      </c>
+      <c r="D38" s="25">
         <f>E48-31*B38</f>
-        <v>3.69388264669164</v>
-      </c>
-      <c r="E38" s="30">
+        <v>4.49662921348315</v>
+      </c>
+      <c r="E38" s="25">
         <f>E48-2*B38</f>
-        <v>5.51860174781523</v>
-      </c>
-      <c r="F38" s="30">
+        <v>6.74494382022472</v>
+      </c>
+      <c r="F38" s="25">
         <f>FACT(4)</f>
         <v>24</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="25">
         <f>(O25+W25)/2</f>
         <v>1834.5</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38" s="25">
         <f>(P25+X25)/2</f>
         <v>2108.5</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="25">
         <f>(Q25+Y25)/2</f>
         <v>262</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="25">
         <f>(R25+Z25)/2</f>
         <v>499</v>
       </c>
-      <c r="S38" s="30">
+      <c r="S38" s="25">
         <f>S25</f>
         <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="25">
         <f>E50</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="25">
         <f>89*88*87*86</f>
         <v>58599024</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="25">
         <f>F38/F39</f>
         <v>4.09563135386009e-7</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="25">
         <f>POWER(H39,1/4)</f>
         <v>0.0252976520426752</v>
       </c>
-      <c r="O39" s="30">
+      <c r="O39" s="25">
         <f t="shared" ref="O39:O47" si="20">(O26+W26)/2</f>
         <v>1323</v>
       </c>
-      <c r="P39" s="30">
+      <c r="P39" s="25">
         <f t="shared" ref="P39:P47" si="21">(P26+X26)/2</f>
         <v>604.5</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="25">
         <f t="shared" ref="Q39:Q47" si="22">(Q26+Y26)/2</f>
         <v>879.5</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="25">
         <f t="shared" ref="R39:R47" si="23">(R26+Z26)/2</f>
         <v>1135.5</v>
       </c>
-      <c r="S39" s="30">
+      <c r="S39" s="25">
         <f t="shared" ref="S39:S47" si="24">S26</f>
         <v>885</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="25">
         <f>1/89</f>
         <v>0.0112359550561798</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="25">
         <f>E50-14*B40</f>
         <v>2.12841091492777</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="25">
         <f>B39-B40</f>
         <v>2.27447833065811</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="25">
         <f t="shared" si="20"/>
         <v>4891</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="25">
         <f t="shared" si="21"/>
         <v>1793</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="25">
         <f t="shared" si="22"/>
         <v>5599.5</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="25">
         <f t="shared" si="23"/>
         <v>2200.5</v>
       </c>
-      <c r="S40" s="30">
+      <c r="S40" s="25">
         <f t="shared" si="24"/>
         <v>5006</v>
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="25">
         <v>8</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O41" s="25">
         <f t="shared" si="20"/>
         <v>529</v>
       </c>
-      <c r="P41" s="30">
+      <c r="P41" s="25">
         <f t="shared" si="21"/>
         <v>823.5</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="25">
         <f t="shared" si="22"/>
         <v>598</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="25">
         <f t="shared" si="23"/>
         <v>763</v>
       </c>
-      <c r="S41" s="30">
+      <c r="S41" s="25">
         <f t="shared" si="24"/>
         <v>2687</v>
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="25">
         <f>13/89*13/4/2</f>
         <v>0.237359550561798</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="25">
         <f>B42*31</f>
         <v>7.35814606741573</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="25">
         <f>2*B42</f>
         <v>0.474719101123595</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="25">
         <f>14.5/17</f>
         <v>0.852941176470588</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="25">
         <f t="shared" si="20"/>
         <v>621.5</v>
       </c>
-      <c r="P42" s="30">
+      <c r="P42" s="25">
         <f t="shared" si="21"/>
         <v>1908.5</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42" s="25">
         <f t="shared" si="22"/>
         <v>1224.5</v>
       </c>
-      <c r="R42" s="30">
+      <c r="R42" s="25">
         <f t="shared" si="23"/>
         <v>1568.5</v>
       </c>
-      <c r="S42" s="30">
+      <c r="S42" s="25">
         <f t="shared" si="24"/>
         <v>2192</v>
       </c>
     </row>
     <row r="43" spans="8:19">
-      <c r="H43" s="30">
+      <c r="H43" s="25">
         <f>4/9</f>
         <v>0.444444444444444</v>
       </c>
-      <c r="O43" s="30">
+      <c r="O43" s="25">
         <f t="shared" si="20"/>
         <v>788.5</v>
       </c>
-      <c r="P43" s="30">
+      <c r="P43" s="25">
         <f t="shared" si="21"/>
         <v>625</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q43" s="25">
         <f t="shared" si="22"/>
         <v>273</v>
       </c>
-      <c r="R43" s="30">
+      <c r="R43" s="25">
         <f t="shared" si="23"/>
         <v>1162</v>
       </c>
-      <c r="S43" s="30">
+      <c r="S43" s="25">
         <f t="shared" si="24"/>
         <v>2438</v>
       </c>
     </row>
     <row r="44" spans="15:19">
-      <c r="O44" s="30">
+      <c r="O44" s="25">
         <f t="shared" si="20"/>
         <v>1778.5</v>
       </c>
-      <c r="P44" s="30">
+      <c r="P44" s="25">
         <f t="shared" si="21"/>
         <v>1379.5</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="25">
         <f t="shared" si="22"/>
         <v>1521.5</v>
       </c>
-      <c r="R44" s="30">
+      <c r="R44" s="25">
         <f t="shared" si="23"/>
         <v>1335</v>
       </c>
-      <c r="S44" s="30">
+      <c r="S44" s="25">
         <f t="shared" si="24"/>
         <v>2775</v>
       </c>
     </row>
     <row r="45" spans="15:19">
-      <c r="O45" s="30">
+      <c r="O45" s="25">
         <f t="shared" si="20"/>
         <v>282</v>
       </c>
-      <c r="P45" s="30">
+      <c r="P45" s="25">
         <f t="shared" si="21"/>
         <v>520.5</v>
       </c>
-      <c r="Q45" s="30">
+      <c r="Q45" s="25">
         <f t="shared" si="22"/>
         <v>564</v>
       </c>
-      <c r="R45" s="30">
+      <c r="R45" s="25">
         <f t="shared" si="23"/>
         <v>223.5</v>
       </c>
-      <c r="S45" s="30">
+      <c r="S45" s="25">
         <f t="shared" si="24"/>
         <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="25">
         <f>28*3+8*2+7*2+2</f>
         <v>116</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="25">
         <f>D46/45</f>
         <v>2.57777777777778</v>
       </c>
-      <c r="O46" s="30">
+      <c r="O46" s="25">
         <f t="shared" si="20"/>
         <v>392.5</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="25">
         <f t="shared" si="21"/>
         <v>332.5</v>
       </c>
-      <c r="Q46" s="30">
+      <c r="Q46" s="25">
         <f t="shared" si="22"/>
         <v>526.5</v>
       </c>
-      <c r="R46" s="30">
+      <c r="R46" s="25">
         <f t="shared" si="23"/>
         <v>398.5</v>
       </c>
-      <c r="S46" s="30">
+      <c r="S46" s="25">
         <f t="shared" si="24"/>
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="25">
         <f>2*4+3*4+4</f>
         <v>24</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="25">
         <f>D47/9</f>
         <v>2.66666666666667</v>
       </c>
-      <c r="O47" s="30">
+      <c r="O47" s="25">
         <f t="shared" si="20"/>
         <v>1049.5</v>
       </c>
-      <c r="P47" s="30">
+      <c r="P47" s="25">
         <f t="shared" si="21"/>
         <v>504</v>
       </c>
-      <c r="Q47" s="30">
+      <c r="Q47" s="25">
         <f t="shared" si="22"/>
         <v>266.5</v>
       </c>
-      <c r="R47" s="30">
+      <c r="R47" s="25">
         <f t="shared" si="23"/>
         <v>159.5</v>
       </c>
-      <c r="S47" s="30">
+      <c r="S47" s="25">
         <f t="shared" si="24"/>
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="30">
-        <f>4*2+8*3+22*4+30*8+4*4+22*6</f>
-        <v>508</v>
-      </c>
-      <c r="E48" s="30">
-        <f>D48/90</f>
-        <v>5.64444444444444</v>
+      <c r="E48" s="25">
+        <v>6.9</v>
       </c>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="25">
         <f>4+4</f>
         <v>8</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="25">
         <f>D49/5</f>
         <v>1.6</v>
       </c>
-      <c r="O49" s="30">
+      <c r="O49" s="25">
         <f>ROUND(O38/100,0)</f>
         <v>18</v>
       </c>
-      <c r="P49" s="30">
+      <c r="P49" s="25">
         <f>ROUND(P38/100,0)</f>
         <v>21</v>
       </c>
-      <c r="Q49" s="30">
+      <c r="Q49" s="25">
         <f>ROUND(Q38/100,0)</f>
         <v>3</v>
       </c>
-      <c r="R49" s="30">
+      <c r="R49" s="25">
         <f>ROUND(R38/100,0)</f>
         <v>5</v>
       </c>
-      <c r="S49" s="30">
+      <c r="S49" s="25">
         <f>ROUND(S38/100,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="25">
         <f>2*6+4</f>
         <v>16</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="25">
         <f>D50/7</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="O50" s="30">
+      <c r="O50" s="25">
         <f t="shared" ref="O50:O58" si="25">ROUND(O39/100,0)</f>
         <v>13</v>
       </c>
-      <c r="P50" s="30">
+      <c r="P50" s="25">
         <f t="shared" ref="P50:P58" si="26">ROUND(P39/100,0)</f>
         <v>6</v>
       </c>
-      <c r="Q50" s="30">
+      <c r="Q50" s="25">
         <f t="shared" ref="Q50:Q58" si="27">ROUND(Q39/100,0)</f>
         <v>9</v>
       </c>
-      <c r="R50" s="30">
+      <c r="R50" s="25">
         <f t="shared" ref="R50:R58" si="28">ROUND(R39/100,0)</f>
         <v>11</v>
       </c>
-      <c r="S50" s="30">
+      <c r="S50" s="25">
         <f t="shared" ref="S50:S58" si="29">ROUND(S39/100,0)</f>
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="15:19">
-      <c r="O51" s="30">
+      <c r="O51" s="25">
         <f t="shared" si="25"/>
         <v>49</v>
       </c>
-      <c r="P51" s="30">
+      <c r="P51" s="25">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="Q51" s="30">
+      <c r="Q51" s="25">
         <f t="shared" si="27"/>
         <v>56</v>
       </c>
-      <c r="R51" s="30">
+      <c r="R51" s="25">
         <f t="shared" si="28"/>
         <v>22</v>
       </c>
-      <c r="S51" s="30">
+      <c r="S51" s="25">
         <f t="shared" si="29"/>
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="15:19">
-      <c r="O52" s="30">
+      <c r="O52" s="25">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="P52" s="30">
+      <c r="P52" s="25">
         <f t="shared" si="26"/>
         <v>8</v>
       </c>
-      <c r="Q52" s="30">
+      <c r="Q52" s="25">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="R52" s="30">
+      <c r="R52" s="25">
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="S52" s="30">
+      <c r="S52" s="25">
         <f t="shared" si="29"/>
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="2:19">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O53" s="30">
+      <c r="O53" s="25">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="P53" s="30">
+      <c r="P53" s="25">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
-      <c r="Q53" s="30">
+      <c r="Q53" s="25">
         <f t="shared" si="27"/>
         <v>12</v>
       </c>
-      <c r="R53" s="30">
+      <c r="R53" s="25">
         <f t="shared" si="28"/>
         <v>16</v>
       </c>
-      <c r="S53" s="30">
+      <c r="S53" s="25">
         <f t="shared" si="29"/>
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="25">
         <v>17</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="25">
         <v>90</v>
       </c>
-      <c r="O54" s="30">
+      <c r="O54" s="25">
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="P54" s="30">
+      <c r="P54" s="25">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
-      <c r="Q54" s="30">
+      <c r="Q54" s="25">
         <f t="shared" si="27"/>
         <v>3</v>
       </c>
-      <c r="R54" s="30">
+      <c r="R54" s="25">
         <f t="shared" si="28"/>
         <v>12</v>
       </c>
-      <c r="S54" s="30">
+      <c r="S54" s="25">
         <f t="shared" si="29"/>
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="25">
         <v>90</v>
       </c>
-      <c r="O55" s="30">
+      <c r="O55" s="25">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="P55" s="30">
+      <c r="P55" s="25">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="Q55" s="30">
+      <c r="Q55" s="25">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="R55" s="30">
+      <c r="R55" s="25">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
-      <c r="S55" s="30">
+      <c r="S55" s="25">
         <f t="shared" si="29"/>
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="25">
         <v>90</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O56" s="30">
+      <c r="O56" s="25">
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="P56" s="30">
+      <c r="P56" s="25">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="Q56" s="30">
+      <c r="Q56" s="25">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="R56" s="30">
+      <c r="R56" s="25">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="S56" s="30">
+      <c r="S56" s="25">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="30">
+      <c r="O57" s="25">
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="P57" s="30">
+      <c r="P57" s="25">
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="Q57" s="30">
+      <c r="Q57" s="25">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="R57" s="30">
+      <c r="R57" s="25">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="S57" s="30">
+      <c r="S57" s="25">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" ht="10" customHeight="1" spans="1:19">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="25">
         <v>9</v>
       </c>
-      <c r="O58" s="30">
+      <c r="O58" s="25">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="P58" s="30">
+      <c r="P58" s="25">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="Q58" s="30">
+      <c r="Q58" s="25">
         <f t="shared" si="27"/>
         <v>3</v>
       </c>
-      <c r="R58" s="30">
+      <c r="R58" s="25">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="S58" s="30">
+      <c r="S58" s="25">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="25">
         <v>5</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="25">
         <v>7</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3803,8 +3783,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:K11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3980,7 +3958,7 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="22">
         <v>4</v>
       </c>
       <c r="G7">
@@ -4360,23 +4338,23 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" ref="D31:D40" si="4">(B4+C5+E5+F4+F2+E1+C1+B2)/2</f>
         <v>6</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" ref="E31:E40" si="5">(C4+D5+F5+G4+G2+F1+D1+C2)/2</f>
         <v>8.5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f t="shared" ref="F31:F40" si="6">(D4+E5+G5+H4+H2+G1+E1+D2)/2</f>
         <v>12</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f t="shared" ref="G31:G40" si="7">(E4+F5+H5+I4+I2+H1+F1+E2)/2</f>
         <v>13.5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <f t="shared" ref="H31:H40" si="8">(F4+G5+I5+J4+J2+I1+G1+F2)/2</f>
         <v>14</v>
       </c>
@@ -4385,23 +4363,23 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
@@ -4410,23 +4388,23 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
@@ -4435,23 +4413,23 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
@@ -4460,23 +4438,23 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
@@ -4485,23 +4463,23 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
@@ -4510,23 +4488,23 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="6"/>
         <v>14.5</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
@@ -4535,23 +4513,23 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f t="shared" si="6"/>
         <v>13.5</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -4560,23 +4538,23 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
@@ -4585,23 +4563,23 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -4612,87 +4590,87 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4">
         <f>D10+H10</f>
         <v>8</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f>F8+F12</f>
         <v>7</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
         <f>F8+F12+J8+J12</f>
         <v>14</v>
       </c>
@@ -4701,24 +4679,24 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4">
         <f>D10+H10</f>
         <v>8</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
@@ -4811,13 +4789,13 @@
       <c r="F3">
         <v>39</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>87</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>103</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I12" si="0">G3</f>
         <v>87</v>
       </c>
@@ -4847,13 +4825,13 @@
       <c r="F4">
         <v>30</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>76</v>
       </c>
       <c r="H4">
         <v>446</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="19">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -4883,13 +4861,13 @@
       <c r="F5">
         <v>160</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>93</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="3">
         <v>495</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="21">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
@@ -4952,7 +4930,7 @@
       <c r="E7">
         <v>90</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="22">
         <v>180</v>
       </c>
       <c r="G7">
@@ -5063,13 +5041,13 @@
       <c r="F10">
         <v>41</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>26</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>71</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -5099,13 +5077,13 @@
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>27</v>
       </c>
       <c r="H11">
         <v>18</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="19">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -5135,13 +5113,13 @@
       <c r="F12">
         <v>21</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>14</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5191,15 +5169,15 @@
         <f t="shared" si="4"/>
         <v>178</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <f t="shared" si="4"/>
         <v>174</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
@@ -5217,7 +5195,7 @@
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <f t="shared" si="5"/>
         <v>563</v>
       </c>
@@ -5225,7 +5203,7 @@
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
@@ -5243,15 +5221,15 @@
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <f t="shared" si="6"/>
         <v>731</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="3">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="I18" s="26"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
@@ -5363,101 +5341,101 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" ref="D27:H27" si="11">(B4+C5+E5+F4+F2+E1+C1+B2)/2</f>
         <v>32.5</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="11"/>
         <v>197.5</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" si="11"/>
         <v>332</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="23">
         <f t="shared" si="11"/>
         <v>382</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="16">
         <f t="shared" si="11"/>
         <v>123</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" ref="D28:H28" si="12">(B5+C6+E6+F5+F3+E2+C2+B3)/2</f>
         <v>120</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="12"/>
         <v>122.5</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="12"/>
         <v>426.5</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="17">
         <f t="shared" si="12"/>
         <v>246</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <f t="shared" si="12"/>
         <v>243</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" ref="D29:H29" si="13">(B6+C7+E7+F6+F4+E3+C3+B4)/2</f>
         <v>125</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="13"/>
         <v>230.5</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f t="shared" si="13"/>
         <v>533</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="24">
         <f t="shared" si="13"/>
         <v>364.5</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="2">
         <f t="shared" si="13"/>
         <v>245</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" ref="D30:H30" si="14">(B7+C8+E8+F7+F5+E4+C4+B5)/2</f>
         <v>208</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="14"/>
         <v>223</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <f t="shared" si="14"/>
         <v>604.5</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <f t="shared" si="14"/>
         <v>520</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
@@ -5466,23 +5444,23 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" ref="D31:H31" si="15">(B8+C9+E9+F8+F6+E5+C5+B6)/2</f>
         <v>115.5</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="15"/>
         <v>316.5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f t="shared" si="15"/>
         <v>357.5</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f t="shared" si="15"/>
         <v>583.5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <f t="shared" si="15"/>
         <v>288</v>
       </c>
@@ -5491,23 +5469,23 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" ref="D32:H32" si="16">(B9+C10+E10+F9+F7+E6+C6+B7)/2</f>
         <v>171</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="16"/>
         <v>149.5</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="16"/>
         <v>394</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="16"/>
         <v>320</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="16"/>
         <v>338</v>
       </c>
@@ -5516,23 +5494,23 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" ref="D33:H33" si="17">(B10+C11+E11+F10+F8+E7+C7+B8)/2</f>
         <v>116.5</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="17"/>
         <v>223</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="17"/>
         <v>289</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <f t="shared" si="17"/>
         <v>311</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <f t="shared" si="17"/>
         <v>232</v>
       </c>
@@ -5541,23 +5519,23 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" ref="D34:H34" si="18">(B11+C12+E12+F11+F9+E8+C8+B9)/2</f>
         <v>99.5</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="18"/>
         <v>154.5</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="18"/>
         <v>266</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <f t="shared" si="18"/>
         <v>250</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <f t="shared" si="18"/>
         <v>211</v>
       </c>
@@ -5566,23 +5544,23 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" ref="D35:H35" si="19">(B12+C13+E13+F12+F10+E9+C9+B10)/2</f>
         <v>72</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f t="shared" si="19"/>
         <v>115.5</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f t="shared" si="19"/>
         <v>149</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <f t="shared" si="19"/>
         <v>208</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <f t="shared" si="19"/>
         <v>143</v>
       </c>
@@ -5591,152 +5569,152 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" ref="D36:H36" si="20">(B13+C14+E14+F13+F11+E10+C10+B11)/2</f>
         <v>31.5</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="20"/>
         <v>45.5</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f t="shared" si="20"/>
         <v>48.5</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <f t="shared" si="20"/>
         <v>83</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <f t="shared" si="20"/>
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
         <f>D10+H10</f>
         <v>94</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f>F8+F12</f>
         <v>96</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5">
         <f>H11</f>
         <v>18</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="16">
         <f>F8+F12+J8+J12</f>
         <v>192</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="21"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="17"/>
       <c r="H45">
         <f>G12+I12+I10+G10</f>
         <v>80</v>
       </c>
-      <c r="I45" s="24"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4">
         <f>D10+H10</f>
         <v>94</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="8">
         <f>H11</f>
         <v>18</v>
       </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="26"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1"/>
@@ -5786,8 +5764,8 @@
   <sheetPr/>
   <dimension ref="A3:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5807,13 +5785,13 @@
       <c r="F3">
         <v>114</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>145</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>382</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="18">
         <f>G3</f>
         <v>145</v>
       </c>
@@ -5843,13 +5821,13 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>18</v>
       </c>
       <c r="H4">
         <v>321</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="19">
         <f t="shared" ref="I4:I12" si="0">G4</f>
         <v>18</v>
       </c>
@@ -5879,13 +5857,13 @@
       <c r="F5">
         <v>56</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>43</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="3">
         <v>345</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="19">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -5921,7 +5899,7 @@
       <c r="H6">
         <v>199</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5948,7 +5926,7 @@
       <c r="E7">
         <v>19</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="4">
         <v>72</v>
       </c>
       <c r="G7">
@@ -5957,7 +5935,7 @@
       <c r="H7">
         <v>57</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -5993,7 +5971,7 @@
       <c r="H8">
         <v>42</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -6029,7 +6007,7 @@
       <c r="H9">
         <v>40</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -6059,13 +6037,13 @@
       <c r="F10">
         <v>7</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>7</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6095,13 +6073,13 @@
       <c r="F11">
         <v>7</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>6</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -6131,13 +6109,13 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>2</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6187,15 +6165,15 @@
         <f t="shared" si="4"/>
         <v>166</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="4"/>
         <v>496</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
@@ -6213,7 +6191,7 @@
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <f t="shared" si="5"/>
         <v>475</v>
       </c>
@@ -6221,7 +6199,7 @@
         <f t="shared" si="5"/>
         <v>418</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
@@ -6239,15 +6217,15 @@
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <f t="shared" si="6"/>
         <v>419</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="3">
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
-      <c r="I18" s="26"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
@@ -6359,101 +6337,101 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="13">
+      <c r="D27" s="9">
         <f t="shared" ref="D27:H27" si="11">(B4+C5+E5+F4+F2+E1+C1+B2)/2</f>
         <v>13.5</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="9">
         <f t="shared" si="11"/>
         <v>74.5</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="9">
         <f t="shared" si="11"/>
         <v>197.5</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="10">
         <f t="shared" si="11"/>
         <v>212.5</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="11">
         <f t="shared" si="11"/>
         <v>52</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="13">
+      <c r="D28" s="9">
         <f t="shared" ref="D28:H28" si="12">(B5+C6+E6+F5+F3+E2+C2+B3)/2</f>
         <v>89</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="9">
         <f t="shared" si="12"/>
         <v>235</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="9">
         <f t="shared" si="12"/>
         <v>418</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="12">
         <f t="shared" si="12"/>
         <v>234</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="9">
         <f t="shared" si="12"/>
         <v>178</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="13">
+      <c r="D29" s="9">
         <f t="shared" ref="D29:H29" si="13">(B6+C7+E7+F6+F4+E3+C3+B4)/2</f>
         <v>45.5</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="9">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="9">
         <f t="shared" si="13"/>
         <v>487</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="13">
         <f t="shared" si="13"/>
         <v>332.5</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="14">
         <f t="shared" si="13"/>
         <v>212</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="13">
+      <c r="D30" s="9">
         <f t="shared" ref="D30:H30" si="14">(B7+C8+E8+F7+F5+E4+C4+B5)/2</f>
         <v>72</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="9">
         <f t="shared" si="14"/>
         <v>53.5</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="9">
         <f t="shared" si="14"/>
         <v>288.5</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="9">
         <f t="shared" si="14"/>
         <v>238.5</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="9">
         <f t="shared" si="14"/>
         <v>162</v>
       </c>
@@ -6462,23 +6440,23 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="13">
+      <c r="D31" s="9">
         <f t="shared" ref="D31:H31" si="15">(B8+C9+E9+F8+F6+E5+C5+B6)/2</f>
         <v>42.5</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="9">
         <f t="shared" si="15"/>
         <v>99</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="9">
         <f t="shared" si="15"/>
         <v>297.5</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="9">
         <f t="shared" si="15"/>
         <v>252</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="9">
         <f t="shared" si="15"/>
         <v>114</v>
       </c>
@@ -6487,23 +6465,23 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="13">
+      <c r="D32" s="9">
         <f t="shared" ref="D32:H32" si="16">(B9+C10+E10+F9+F7+E6+C6+B7)/2</f>
         <v>53</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="9">
         <f t="shared" si="16"/>
         <v>164</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="9">
         <f t="shared" si="16"/>
         <v>96.5</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="9">
         <f t="shared" si="16"/>
         <v>163</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="9">
         <f t="shared" si="16"/>
         <v>104</v>
       </c>
@@ -6512,23 +6490,23 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="13">
+      <c r="D33" s="9">
         <f t="shared" ref="D33:H33" si="17">(B10+C11+E11+F10+F8+E7+C7+B8)/2</f>
         <v>19.5</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="9">
         <f t="shared" si="17"/>
         <v>76</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="9">
         <f t="shared" si="17"/>
         <v>57</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="9">
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="9">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
@@ -6537,23 +6515,23 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="13">
+      <c r="D34" s="9">
         <f t="shared" ref="D34:H34" si="18">(B11+C12+E12+F11+F9+E8+C8+B9)/2</f>
         <v>21.5</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="9">
         <f t="shared" si="18"/>
         <v>33</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="9">
         <f t="shared" si="18"/>
         <v>50.5</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="9">
         <f t="shared" si="18"/>
         <v>50.5</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="9">
         <f t="shared" si="18"/>
         <v>46</v>
       </c>
@@ -6562,23 +6540,23 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="13">
+      <c r="D35" s="9">
         <f t="shared" ref="D35:H35" si="19">(B12+C13+E13+F12+F10+E9+C9+B10)/2</f>
         <v>13</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="9">
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="9">
         <f t="shared" si="19"/>
         <v>29</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="9">
         <f t="shared" si="19"/>
         <v>38</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="9">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
@@ -6587,152 +6565,152 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="13">
+      <c r="D36" s="9">
         <f t="shared" ref="D36:H36" si="20">(B13+C14+E14+F13+F11+E10+C10+B11)/2</f>
         <v>6</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="9">
         <f t="shared" si="20"/>
         <v>8</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="9">
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="9">
         <f t="shared" si="20"/>
         <v>12</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="9">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
         <f>D10+H10</f>
         <v>10</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f>F8+F12</f>
         <v>12</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5">
         <f>H11</f>
         <v>2</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="16">
         <f>F8+F12+J8+J12</f>
         <v>24</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="21"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="17"/>
       <c r="H45">
         <f>G12+I12+I10+G10</f>
         <v>10</v>
       </c>
-      <c r="I45" s="24"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4">
         <f>D10+H10</f>
         <v>10</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="8">
         <f>H11</f>
         <v>2</v>
       </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="26"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1"/>
@@ -6780,10 +6758,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:J55"/>
+  <dimension ref="A3:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6912,7 +6890,7 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2">
@@ -7191,28 +7169,28 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" ref="D20:H20" si="6">D6+E7+C7</f>
         <v>6</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -7258,353 +7236,859 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:29">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f>B4+C5+E5+F4+F2+E1+C1+B2</f>
         <v>12</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f>C4+D5+F5+G4+G2+F1+D1+C2</f>
         <v>17</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <f>D4+E5+G5+H4+H2+G1+E1+D2</f>
         <v>24</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <f>E4+F5+H5+I4+I2+H1+F1+E2</f>
         <v>27</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f>F4+G5+I5+J4+J2+I1+G1+F2</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="K26">
+        <f>D26-5</f>
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <f>E26-5</f>
+        <v>12</v>
+      </c>
+      <c r="M26">
+        <f>F26-5</f>
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <f>G26-5</f>
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <f>H26-5</f>
+        <v>23</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>9</v>
+      </c>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" ref="D27:D35" si="9">B5+C6+E6+F5+F3+E2+C2+B3</f>
         <v>17</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" ref="E27:E35" si="10">C5+D6+F6+G5+G3+F2+D2+C3</f>
         <v>24</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" ref="F27:F35" si="11">D5+E6+G6+H5+H3+G2+E2+D3</f>
         <v>44</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <f t="shared" ref="G27:G35" si="12">E5+F6+H6+I5+I3+H2+F2+E3</f>
         <v>38</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <f t="shared" ref="H27:H35" si="13">F5+G6+I6+J5+J3+I2+G2+F3</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27">
+        <f t="shared" ref="K27:K35" si="14">D27-5</f>
+        <v>12</v>
+      </c>
+      <c r="L27">
+        <f>E27-5</f>
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <f>F27-5</f>
+        <v>39</v>
+      </c>
+      <c r="N27">
+        <f>G27-5</f>
+        <v>33</v>
+      </c>
+      <c r="O27">
+        <f>H27-5</f>
+        <v>33</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+      <c r="R27">
+        <v>20</v>
+      </c>
+      <c r="S27">
+        <v>34</v>
+      </c>
+      <c r="T27">
+        <v>42</v>
+      </c>
+      <c r="U27">
+        <v>60</v>
+      </c>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <f t="shared" si="12"/>
         <v>61</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <f t="shared" si="13"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="K28">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <f>E28-5</f>
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <f>F28-5</f>
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <f>G28-5</f>
+        <v>56</v>
+      </c>
+      <c r="O28">
+        <f>H28-5</f>
+        <v>47</v>
+      </c>
+      <c r="Q28">
+        <v>23</v>
+      </c>
+      <c r="R28">
+        <v>27</v>
+      </c>
+      <c r="S28">
+        <v>32</v>
+      </c>
+      <c r="T28">
+        <v>37</v>
+      </c>
+      <c r="U28">
+        <v>40</v>
+      </c>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <f t="shared" si="13"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="K29">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="L29">
+        <f>E29-5</f>
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <f>F29-5</f>
+        <v>33</v>
+      </c>
+      <c r="N29">
+        <f>G29-5</f>
+        <v>40</v>
+      </c>
+      <c r="O29">
+        <f>H29-5</f>
+        <v>41</v>
+      </c>
+      <c r="Q29">
+        <v>22</v>
+      </c>
+      <c r="R29">
+        <v>25</v>
+      </c>
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>29</v>
+      </c>
+      <c r="U29">
+        <v>35</v>
+      </c>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="2">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="2">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="2">
         <f t="shared" si="12"/>
         <v>38</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="2">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="K30">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <f>E30-5</f>
+        <v>18</v>
+      </c>
+      <c r="M30">
+        <f>F30-5</f>
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <f>G30-5</f>
+        <v>33</v>
+      </c>
+      <c r="O30">
+        <f>H30-5</f>
+        <v>35</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+      <c r="R30">
+        <v>22</v>
+      </c>
+      <c r="S30">
+        <v>25</v>
+      </c>
+      <c r="T30">
+        <v>25</v>
+      </c>
+      <c r="U30">
+        <v>28</v>
+      </c>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <f t="shared" si="13"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="K31">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <f>E31-5</f>
+        <v>16</v>
+      </c>
+      <c r="M31">
+        <f>F31-5</f>
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <f>G31-5</f>
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <f>H31-5</f>
+        <v>31</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>15</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>16</v>
+      </c>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <f>E32-5</f>
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <f>F32-5</f>
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <f>G32-5</f>
+        <v>27</v>
+      </c>
+      <c r="O32">
+        <f>H32-5</f>
+        <v>27</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="K33">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <f>E33-5</f>
+        <v>15</v>
+      </c>
+      <c r="M33">
+        <f>F33-5</f>
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <f>G33-5</f>
+        <v>21</v>
+      </c>
+      <c r="O33">
+        <f>H33-5</f>
+        <v>25</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <f>E34-5</f>
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <f>F34-5</f>
+        <v>11</v>
+      </c>
+      <c r="N34">
+        <f>G34-5</f>
+        <v>16</v>
+      </c>
+      <c r="O34">
+        <f>H34-5</f>
+        <v>17</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="K35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>E35-5</f>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f>F35-5</f>
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <f>G35-5</f>
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <f>H35-5</f>
+        <v>9</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>11</v>
+      </c>
+      <c r="U35">
+        <v>15</v>
+      </c>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4">
         <f>D10+H10</f>
         <v>7</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f>F8+F12</f>
         <v>8</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
       <c r="G43">
         <f>H11</f>
         <v>6</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <f>F8+F12+J8+J12</f>
         <v>16</v>
       </c>
@@ -7617,10 +8101,10 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44">
         <f>G12+I12+I10+G10</f>
         <v>18</v>
@@ -7630,9 +8114,9 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
         <f>D10+H10</f>
         <v>7</v>
       </c>
@@ -7640,7 +8124,7 @@
         <f>H11</f>
         <v>6</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="H45" s="4"/>
       <c r="I45">
         <f>H11</f>
         <v>6</v>

--- a/SquareWeight.xlsx
+++ b/SquareWeight.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,25 +54,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,18 +78,48 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,13 +139,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -138,14 +147,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -159,25 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,192 +206,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -400,11 +400,132 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,11 +547,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,30 +559,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,172 +577,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +738,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,15 +1086,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:J55"/>
+  <dimension ref="A3:U55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,8 +1123,23 @@
         <f>F3</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3" s="4">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5">
+        <v>75</v>
+      </c>
+      <c r="O3" s="5">
+        <v>29</v>
+      </c>
+      <c r="P3" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1044,8 +1166,23 @@
         <f t="shared" ref="J4:J12" si="1">F4</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4" s="6">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+      <c r="P4">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1072,8 +1209,23 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" s="6">
+        <v>52</v>
+      </c>
+      <c r="N5">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>101</v>
+      </c>
+      <c r="P5">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1100,8 +1252,23 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6" s="6">
+        <v>39</v>
+      </c>
+      <c r="N6">
+        <v>64</v>
+      </c>
+      <c r="O6">
+        <v>66</v>
+      </c>
+      <c r="P6">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1127,6 +1294,21 @@
       <c r="J7">
         <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+      <c r="M7" s="7">
+        <v>55</v>
+      </c>
+      <c r="N7" s="8">
+        <v>71</v>
+      </c>
+      <c r="O7" s="8">
+        <v>129</v>
+      </c>
+      <c r="P7" s="8">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1241,7 +1423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:21">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1268,23 +1450,131 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="M12" s="9">
+        <v>3</v>
+      </c>
+      <c r="N12" s="9">
+        <v>52</v>
+      </c>
+      <c r="O12" s="9">
+        <v>24</v>
+      </c>
+      <c r="P12" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>25</v>
+      </c>
+      <c r="S12" s="9">
+        <v>27</v>
+      </c>
+      <c r="T12" s="9">
+        <v>59</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="M13" s="9">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>3</v>
+      </c>
+      <c r="O13" s="9">
+        <v>5</v>
+      </c>
+      <c r="P13" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>22</v>
+      </c>
+      <c r="R13" s="9">
+        <v>3</v>
+      </c>
+      <c r="S13" s="9">
+        <v>8</v>
+      </c>
+      <c r="T13" s="9">
+        <v>4</v>
+      </c>
+      <c r="U13" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="M14" s="9">
+        <v>14</v>
+      </c>
+      <c r="N14" s="9">
+        <v>15</v>
+      </c>
+      <c r="O14" s="9">
+        <v>34</v>
+      </c>
+      <c r="P14" s="9">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>69</v>
+      </c>
+      <c r="R14" s="9">
+        <v>29</v>
+      </c>
+      <c r="S14" s="9">
+        <v>34</v>
+      </c>
+      <c r="T14" s="9">
+        <v>7</v>
+      </c>
+      <c r="U14" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="M15" s="9">
+        <v>79</v>
+      </c>
+      <c r="N15" s="9">
+        <v>6</v>
+      </c>
+      <c r="O15" s="9">
+        <v>89</v>
+      </c>
+      <c r="P15" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>181</v>
+      </c>
+      <c r="R15" s="9">
+        <v>19</v>
+      </c>
+      <c r="S15" s="9">
+        <v>55</v>
+      </c>
+      <c r="T15" s="9">
+        <v>4</v>
+      </c>
+      <c r="U15" s="9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1310,8 +1600,35 @@
         <f>H2+I3+G3</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="M16" s="9">
+        <v>31</v>
+      </c>
+      <c r="N16" s="9">
+        <v>14</v>
+      </c>
+      <c r="O16" s="9">
+        <v>88</v>
+      </c>
+      <c r="P16" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>66</v>
+      </c>
+      <c r="R16" s="9">
+        <v>26</v>
+      </c>
+      <c r="S16" s="9">
+        <v>75</v>
+      </c>
+      <c r="T16" s="9">
+        <v>13</v>
+      </c>
+      <c r="U16" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1335,8 +1652,35 @@
         <f>H3+I4+G4</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="M17" s="9">
+        <v>36</v>
+      </c>
+      <c r="N17" s="9">
+        <v>21</v>
+      </c>
+      <c r="O17" s="9">
+        <v>75</v>
+      </c>
+      <c r="P17" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>36</v>
+      </c>
+      <c r="R17" s="9">
+        <v>30</v>
+      </c>
+      <c r="S17" s="9">
+        <v>100</v>
+      </c>
+      <c r="T17" s="9">
+        <v>16</v>
+      </c>
+      <c r="U17" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1360,8 +1704,35 @@
         <f>H4+I5+G5</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="M18" s="9">
+        <v>8</v>
+      </c>
+      <c r="N18" s="9">
+        <v>9</v>
+      </c>
+      <c r="O18" s="9">
+        <v>17</v>
+      </c>
+      <c r="P18" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>43</v>
+      </c>
+      <c r="R18" s="9">
+        <v>7</v>
+      </c>
+      <c r="S18" s="9">
+        <v>16</v>
+      </c>
+      <c r="T18" s="9">
+        <v>13</v>
+      </c>
+      <c r="U18" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1385,8 +1756,35 @@
         <f>H5+I6+G6</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="M19" s="9">
+        <v>11</v>
+      </c>
+      <c r="N19" s="9">
+        <v>4</v>
+      </c>
+      <c r="O19" s="9">
+        <v>16</v>
+      </c>
+      <c r="P19" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>31</v>
+      </c>
+      <c r="R19" s="9">
+        <v>14</v>
+      </c>
+      <c r="S19" s="9">
+        <v>14</v>
+      </c>
+      <c r="T19" s="9">
+        <v>8</v>
+      </c>
+      <c r="U19" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1410,8 +1808,35 @@
         <f>H6+I7+G7</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9">
+        <v>4</v>
+      </c>
+      <c r="P20" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>11</v>
+      </c>
+      <c r="R20" s="9">
+        <v>6</v>
+      </c>
+      <c r="S20" s="9">
+        <v>4</v>
+      </c>
+      <c r="T20" s="9">
+        <v>14</v>
+      </c>
+      <c r="U20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1427,8 +1852,35 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="M21" s="9">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9">
+        <v>34</v>
+      </c>
+      <c r="O21" s="9">
+        <v>5</v>
+      </c>
+      <c r="P21" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>2</v>
+      </c>
+      <c r="R21" s="9">
+        <v>6</v>
+      </c>
+      <c r="S21" s="9">
+        <v>3</v>
+      </c>
+      <c r="T21" s="9">
+        <v>22</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1444,23 +1896,113 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="M23" s="9">
+        <v>3</v>
+      </c>
+      <c r="N23" s="9">
+        <v>49</v>
+      </c>
+      <c r="O23" s="9">
+        <v>5</v>
+      </c>
+      <c r="P23" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>1</v>
+      </c>
+      <c r="R23" s="9">
+        <v>7</v>
+      </c>
+      <c r="S23" s="9">
+        <v>8</v>
+      </c>
+      <c r="T23" s="9">
+        <v>52</v>
+      </c>
+      <c r="U23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="M24" s="9">
+        <v>2</v>
+      </c>
+      <c r="N24" s="9">
+        <v>3</v>
+      </c>
+      <c r="O24" s="9">
+        <v>9</v>
+      </c>
+      <c r="P24" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>10</v>
+      </c>
+      <c r="R24" s="9">
+        <v>4</v>
+      </c>
+      <c r="S24" s="9">
+        <v>6</v>
+      </c>
+      <c r="T24" s="9">
+        <v>2</v>
+      </c>
+      <c r="U24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="M25" s="9">
+        <v>8</v>
+      </c>
+      <c r="N25" s="9">
+        <v>14</v>
+      </c>
+      <c r="O25" s="9">
+        <v>16</v>
+      </c>
+      <c r="P25" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>28</v>
+      </c>
+      <c r="R25" s="9">
+        <v>12</v>
+      </c>
+      <c r="S25" s="9">
+        <v>14</v>
+      </c>
+      <c r="T25" s="9">
+        <v>4</v>
+      </c>
+      <c r="U25" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1486,8 +2028,35 @@
         <f t="shared" ref="H26:H35" si="8">(F4+G5+I5+J4+J2+I1+G1+F2)/2</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="M26" s="9">
+        <v>9</v>
+      </c>
+      <c r="N26" s="9">
+        <v>9</v>
+      </c>
+      <c r="O26" s="9">
+        <v>24</v>
+      </c>
+      <c r="P26" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>66</v>
+      </c>
+      <c r="R26" s="9">
+        <v>20</v>
+      </c>
+      <c r="S26" s="9">
+        <v>9</v>
+      </c>
+      <c r="T26" s="9">
+        <v>4</v>
+      </c>
+      <c r="U26" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1511,8 +2080,35 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="M27" s="9">
+        <v>11</v>
+      </c>
+      <c r="N27" s="9">
+        <v>13</v>
+      </c>
+      <c r="O27" s="9">
+        <v>82</v>
+      </c>
+      <c r="P27" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>56</v>
+      </c>
+      <c r="R27" s="9">
+        <v>18</v>
+      </c>
+      <c r="S27" s="9">
+        <v>77</v>
+      </c>
+      <c r="T27" s="9">
+        <v>12</v>
+      </c>
+      <c r="U27" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1536,8 +2132,35 @@
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="M28" s="9">
+        <v>50</v>
+      </c>
+      <c r="N28" s="9">
+        <v>18</v>
+      </c>
+      <c r="O28" s="9">
+        <v>106</v>
+      </c>
+      <c r="P28" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>50</v>
+      </c>
+      <c r="R28" s="9">
+        <v>31</v>
+      </c>
+      <c r="S28" s="9">
+        <v>113</v>
+      </c>
+      <c r="T28" s="9">
+        <v>14</v>
+      </c>
+      <c r="U28" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1561,8 +2184,35 @@
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="M29" s="9">
+        <v>91</v>
+      </c>
+      <c r="N29" s="9">
+        <v>9</v>
+      </c>
+      <c r="O29" s="9">
+        <v>47</v>
+      </c>
+      <c r="P29" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>116</v>
+      </c>
+      <c r="R29" s="9">
+        <v>6</v>
+      </c>
+      <c r="S29" s="9">
+        <v>76</v>
+      </c>
+      <c r="T29" s="9">
+        <v>8</v>
+      </c>
+      <c r="U29" s="9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1586,8 +2236,35 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="M30" s="9">
+        <v>25</v>
+      </c>
+      <c r="N30" s="9">
+        <v>10</v>
+      </c>
+      <c r="O30" s="9">
+        <v>25</v>
+      </c>
+      <c r="P30" s="9">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>59</v>
+      </c>
+      <c r="R30" s="9">
+        <v>41</v>
+      </c>
+      <c r="S30" s="9">
+        <v>36</v>
+      </c>
+      <c r="T30" s="9">
+        <v>10</v>
+      </c>
+      <c r="U30" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1611,8 +2288,35 @@
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="M31" s="9">
+        <v>4</v>
+      </c>
+      <c r="N31" s="9">
+        <v>2</v>
+      </c>
+      <c r="O31" s="9">
+        <v>3</v>
+      </c>
+      <c r="P31" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>22</v>
+      </c>
+      <c r="R31" s="9">
+        <v>5</v>
+      </c>
+      <c r="S31" s="9">
+        <v>4</v>
+      </c>
+      <c r="T31" s="9">
+        <v>9</v>
+      </c>
+      <c r="U31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1635,6 +2339,33 @@
       <c r="H32" s="3">
         <f t="shared" si="8"/>
         <v>16</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <v>32</v>
+      </c>
+      <c r="O32" s="9">
+        <v>24</v>
+      </c>
+      <c r="P32" s="9">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>2</v>
+      </c>
+      <c r="R32" s="9">
+        <v>20</v>
+      </c>
+      <c r="S32" s="9">
+        <v>27</v>
+      </c>
+      <c r="T32" s="9">
+        <v>23</v>
+      </c>
+      <c r="U32" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1879,6 +2610,30 @@
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="A46:A55"/>
   </mergeCells>
+  <conditionalFormatting sqref="M12:U21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:U32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/SquareWeight.xlsx
+++ b/SquareWeight.xlsx
@@ -32,11 +32,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -727,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +759,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +769,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:U55"/>
+  <dimension ref="A3:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1135,7 +1142,7 @@
       <c r="P3" s="5">
         <v>53</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="11">
         <v>38</v>
       </c>
     </row>
@@ -1178,7 +1185,7 @@
       <c r="P4">
         <v>57</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="12">
         <v>131</v>
       </c>
     </row>
@@ -1221,7 +1228,7 @@
       <c r="P5">
         <v>64</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="12">
         <v>143</v>
       </c>
     </row>
@@ -1264,7 +1271,7 @@
       <c r="P6">
         <v>71</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="12">
         <v>103</v>
       </c>
     </row>
@@ -1307,7 +1314,7 @@
       <c r="P7" s="8">
         <v>90</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="13">
         <v>113</v>
       </c>
     </row>
@@ -2418,7 +2425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:19">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2442,8 +2449,27 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="M35" s="10">
+        <v>4</v>
+      </c>
+      <c r="N35" s="10">
+        <v>111</v>
+      </c>
+      <c r="O35" s="10">
+        <v>51</v>
+      </c>
+      <c r="P35" s="10">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>2</v>
+      </c>
+      <c r="S35" s="14">
+        <f>AVERAGE(M35:Q35)</f>
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2480,27 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="M36" s="10">
+        <v>5</v>
+      </c>
+      <c r="N36" s="10">
+        <v>7</v>
+      </c>
+      <c r="O36" s="10">
+        <v>13</v>
+      </c>
+      <c r="P36" s="10">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>44</v>
+      </c>
+      <c r="S36" s="14">
+        <f t="shared" ref="S36:S55" si="9">AVERAGE(M36:Q36)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2464,8 +2509,27 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="M37" s="10">
+        <v>28</v>
+      </c>
+      <c r="N37" s="10">
+        <v>22</v>
+      </c>
+      <c r="O37" s="10">
+        <v>68</v>
+      </c>
+      <c r="P37" s="10">
+        <v>66</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>138</v>
+      </c>
+      <c r="S37" s="14">
+        <f t="shared" si="9"/>
+        <v>64.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2474,8 +2538,27 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="M38" s="10">
+        <v>173</v>
+      </c>
+      <c r="N38" s="10">
+        <v>10</v>
+      </c>
+      <c r="O38" s="10">
+        <v>144</v>
+      </c>
+      <c r="P38" s="10">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>362</v>
+      </c>
+      <c r="S38" s="14">
+        <f t="shared" si="9"/>
+        <v>144.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2484,8 +2567,27 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="M39" s="10">
+        <v>64</v>
+      </c>
+      <c r="N39" s="10">
+        <v>27</v>
+      </c>
+      <c r="O39" s="10">
+        <v>163</v>
+      </c>
+      <c r="P39" s="10">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>132</v>
+      </c>
+      <c r="S39" s="14">
+        <f t="shared" si="9"/>
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2494,8 +2596,27 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="M40" s="10">
+        <v>55</v>
+      </c>
+      <c r="N40" s="10">
+        <v>37</v>
+      </c>
+      <c r="O40" s="10">
+        <v>175</v>
+      </c>
+      <c r="P40" s="10">
+        <v>52</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>72</v>
+      </c>
+      <c r="S40" s="14">
+        <f t="shared" si="9"/>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2507,8 +2628,27 @@
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="M41" s="10">
+        <v>16</v>
+      </c>
+      <c r="N41" s="10">
+        <v>22</v>
+      </c>
+      <c r="O41" s="10">
+        <v>33</v>
+      </c>
+      <c r="P41" s="10">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>86</v>
+      </c>
+      <c r="S41" s="14">
+        <f t="shared" si="9"/>
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2517,8 +2657,27 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="M42" s="10">
+        <v>15</v>
+      </c>
+      <c r="N42" s="10">
+        <v>12</v>
+      </c>
+      <c r="O42" s="10">
+        <v>30</v>
+      </c>
+      <c r="P42" s="10">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>62</v>
+      </c>
+      <c r="S42" s="14">
+        <f t="shared" si="9"/>
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2540,8 +2699,27 @@
         <f>H11</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="M43" s="10">
+        <v>2</v>
+      </c>
+      <c r="N43" s="10">
+        <v>15</v>
+      </c>
+      <c r="O43" s="10">
+        <v>8</v>
+      </c>
+      <c r="P43" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>22</v>
+      </c>
+      <c r="S43" s="14">
+        <f t="shared" si="9"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2552,8 +2730,27 @@
         <f>G12+I12+I10+G10</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="M44" s="10">
+        <v>1</v>
+      </c>
+      <c r="N44" s="10">
+        <v>56</v>
+      </c>
+      <c r="O44" s="10">
+        <v>8</v>
+      </c>
+      <c r="P44" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>4</v>
+      </c>
+      <c r="S44" s="14">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2571,36 +2768,254 @@
         <f>H11</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="S45" s="14"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="M46" s="10">
+        <v>5</v>
+      </c>
+      <c r="N46" s="10">
+        <v>101</v>
+      </c>
+      <c r="O46" s="10">
+        <v>13</v>
+      </c>
+      <c r="P46" s="10">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>2</v>
+      </c>
+      <c r="S46" s="14">
+        <f t="shared" si="9"/>
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="M47" s="10">
+        <v>3</v>
+      </c>
+      <c r="N47" s="10">
+        <v>5</v>
+      </c>
+      <c r="O47" s="10">
+        <v>15</v>
+      </c>
+      <c r="P47" s="10">
+        <v>13</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>20</v>
+      </c>
+      <c r="S47" s="14">
+        <f t="shared" si="9"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="M48" s="10">
+        <v>15</v>
+      </c>
+      <c r="N48" s="10">
+        <v>18</v>
+      </c>
+      <c r="O48" s="10">
+        <v>30</v>
+      </c>
+      <c r="P48" s="10">
+        <v>31</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>56</v>
+      </c>
+      <c r="S48" s="14">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="M49" s="10">
+        <v>17</v>
+      </c>
+      <c r="N49" s="10">
+        <v>13</v>
+      </c>
+      <c r="O49" s="10">
+        <v>33</v>
+      </c>
+      <c r="P49" s="10">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>132</v>
+      </c>
+      <c r="S49" s="14">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="M50" s="10">
+        <v>22</v>
+      </c>
+      <c r="N50" s="10">
+        <v>25</v>
+      </c>
+      <c r="O50" s="10">
+        <v>159</v>
+      </c>
+      <c r="P50" s="10">
+        <v>43</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>112</v>
+      </c>
+      <c r="S50" s="14">
+        <f t="shared" si="9"/>
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="M51" s="10">
+        <v>78</v>
+      </c>
+      <c r="N51" s="10">
+        <v>32</v>
+      </c>
+      <c r="O51" s="10">
+        <v>219</v>
+      </c>
+      <c r="P51" s="10">
+        <v>52</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>100</v>
+      </c>
+      <c r="S51" s="14">
+        <f t="shared" si="9"/>
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="M52" s="10">
+        <v>198</v>
+      </c>
+      <c r="N52" s="10">
+        <v>17</v>
+      </c>
+      <c r="O52" s="10">
+        <v>123</v>
+      </c>
+      <c r="P52" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>232</v>
+      </c>
+      <c r="S52" s="14">
+        <f t="shared" si="9"/>
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="M53" s="10">
+        <v>36</v>
+      </c>
+      <c r="N53" s="10">
+        <v>20</v>
+      </c>
+      <c r="O53" s="10">
+        <v>61</v>
+      </c>
+      <c r="P53" s="10">
+        <v>65</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>118</v>
+      </c>
+      <c r="S53" s="14">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="M54" s="10">
+        <v>5</v>
+      </c>
+      <c r="N54" s="10">
+        <v>11</v>
+      </c>
+      <c r="O54" s="10">
+        <v>7</v>
+      </c>
+      <c r="P54" s="10">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>44</v>
+      </c>
+      <c r="S54" s="14">
+        <f t="shared" si="9"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1"/>
+      <c r="M55" s="10">
+        <v>1</v>
+      </c>
+      <c r="N55" s="10">
+        <v>55</v>
+      </c>
+      <c r="O55" s="10">
+        <v>51</v>
+      </c>
+      <c r="P55" s="10">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>4</v>
+      </c>
+      <c r="S55" s="14">
+        <f t="shared" si="9"/>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="58" spans="13:17">
+      <c r="M58">
+        <f>AVERAGE(M35:M55)</f>
+        <v>37.15</v>
+      </c>
+      <c r="N58">
+        <f>AVERAGE(N35:N55)</f>
+        <v>30.8</v>
+      </c>
+      <c r="O58">
+        <f>AVERAGE(O35:O55)</f>
+        <v>70.2</v>
+      </c>
+      <c r="P58">
+        <f>AVERAGE(P35:P55)</f>
+        <v>33.75</v>
+      </c>
+      <c r="Q58">
+        <f>AVERAGE(Q35:Q55)</f>
+        <v>87.2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
